--- a/Data/NewLand.xlsx
+++ b/Data/NewLand.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ManVsWild/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ManVsWild/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="24000" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="41880" yWindow="1680" windowWidth="24000" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="260">
   <si>
     <t>NPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1608,6 +1611,33 @@
   <si>
     <t>31|26</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200;200;2100|95;2104|90;3102|100;3402|30;4100|100;4101|100;4103|90;4104|90;4110|80</t>
+  </si>
+  <si>
+    <t>探索</t>
+  </si>
+  <si>
+    <t>探索未知的区域。</t>
+  </si>
+  <si>
+    <t>100|115;101|153;102|153;103|27;104|86;105|153</t>
+  </si>
+  <si>
+    <t>捕猎</t>
+  </si>
+  <si>
+    <t>在溪边狩猎。</t>
+  </si>
+  <si>
+    <t>镇长;最近镇子周围常有山贼出没，请帮忙除去他们！如果你有打败我的信心，我可以告诉你他们的老巢。;10001</t>
+  </si>
+  <si>
+    <t>镇长</t>
+  </si>
+  <si>
+    <t>跟他谈一谈。</t>
   </si>
 </sst>
 </file>
@@ -1964,19 +1994,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW114"/>
+  <dimension ref="A1:AW123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH65" workbookViewId="0">
-      <selection activeCell="AQ72" sqref="AQ72"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="6" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="34" max="40" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12036,7 +12066,7 @@
         <v>身体|头部|腿部</v>
       </c>
       <c r="AA92" t="str">
-        <f t="shared" ref="AA92:AA124" si="109">D68</f>
+        <f t="shared" ref="AA92:AA114" si="109">D68</f>
         <v>2413|0.2;2405|0.1;2400|0.05;2401|0.05;2402|0.05;2300|0.2;2301|0.2</v>
       </c>
       <c r="AB92">
@@ -13256,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="17:32" x14ac:dyDescent="0.15">
+    <row r="113" spans="4:32" x14ac:dyDescent="0.15">
       <c r="Q113">
         <v>3416</v>
       </c>
@@ -13316,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="17:32" x14ac:dyDescent="0.15">
+    <row r="114" spans="4:32" x14ac:dyDescent="0.15">
       <c r="Q114">
         <v>3417</v>
       </c>
@@ -13374,6 +13404,57 @@
       </c>
       <c r="AF114">
         <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="D121">
+        <v>103</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121" t="s">
+        <v>251</v>
+      </c>
+      <c r="G121" t="s">
+        <v>252</v>
+      </c>
+      <c r="H121" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="D122">
+        <v>102</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>254</v>
+      </c>
+      <c r="G122" t="s">
+        <v>255</v>
+      </c>
+      <c r="H122" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="4:32" x14ac:dyDescent="0.15">
+      <c r="D123">
+        <v>401</v>
+      </c>
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>257</v>
+      </c>
+      <c r="G123" t="s">
+        <v>258</v>
+      </c>
+      <c r="H123" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/Data/NewLand.xlsx
+++ b/Data/NewLand.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41880" yWindow="1680" windowWidth="24000" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="40340" yWindow="3300" windowWidth="24000" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="281">
   <si>
     <t>NPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1638,6 +1638,310 @@
   </si>
   <si>
     <t>跟他谈一谈。</t>
+  </si>
+  <si>
+    <t>概率</t>
+    <rPh sb="0" eb="1">
+      <t>gai'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2410|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2412|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2411|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2413|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2414|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾莫斯</t>
+  </si>
+  <si>
+    <t>飓风</t>
+  </si>
+  <si>
+    <t>亚玟</t>
+  </si>
+  <si>
+    <t>哈里森</t>
+  </si>
+  <si>
+    <t>骨龙</t>
+  </si>
+  <si>
+    <t>秩序执掌者注释着你。</t>
+    <rPh sb="5" eb="6">
+      <t>zhu'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ni</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真理执掌者闭上了眼睛。</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'zhang'zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi'shang'le</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡执掌者在假寐。</t>
+    <rPh sb="5" eb="6">
+      <t>z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia'mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命执掌者对你微笑。</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'ming</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'zhang'zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui'ni</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱执掌者露出了獠牙。</t>
+    <rPh sb="5" eb="6">
+      <t>lou'chu'le</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liao'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这世上，不过是权利和秩序的游戏！&lt;战胜他，得到秩序阵营的认可。&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi'shang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>s</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>quan'li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'xu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>d</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you'xi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de'dao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhi'xu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zhen'ying</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>d</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ren'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真理才是永恒，信我者生，逆我者死！&lt;击败他，得到真理阵营的认可。&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'heng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>si</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji'bai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhen'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多么美妙的世界，吞噬掉它！&lt;战胜他，得到混乱阵营的认可。&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>duo'me</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei'miao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tun'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>diao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hun'luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命的力量守护着大地，不要妄想奴役我们！&lt;挑战她，得到生命阵营的认可。&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'ming</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li'liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'hu'zhe</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da'di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu'yao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wang'xiang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>nu'yi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wo'm</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>tiao'zhan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>sheng'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论你多么强大，死亡终将笼罩你。&lt;击败他，得到死亡阵营的认可。&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>wu'lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duo'me</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiang'da</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>si'wang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong'jiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>long'zhao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji'bai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>si'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1704,8 +2008,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1716,10 +2022,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1994,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW123"/>
+  <dimension ref="A1:AW136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2007,6 +2315,8 @@
     <col min="6" max="11" width="10.83203125" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
+    <col min="20" max="32" width="0" hidden="1" customWidth="1"/>
     <col min="34" max="40" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5068,6 +5378,9 @@
       <c r="M26" t="s">
         <v>140</v>
       </c>
+      <c r="AG26" t="s">
+        <v>260</v>
+      </c>
       <c r="AP26">
         <v>100</v>
       </c>
@@ -5193,6 +5506,13 @@
       <c r="AF27">
         <v>0</v>
       </c>
+      <c r="AG27">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="str">
+        <f>Q27&amp;"|"&amp;AG27</f>
+        <v>3000|10</v>
+      </c>
       <c r="AP27">
         <v>100</v>
       </c>
@@ -5318,6 +5638,13 @@
       <c r="AF28">
         <v>0</v>
       </c>
+      <c r="AG28">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="str">
+        <f>IF(AG28&gt;0,AH27&amp;";"&amp;Q28&amp;"|"&amp;AG28,AH27)</f>
+        <v>3000|10;3001|10</v>
+      </c>
       <c r="AO28" t="s">
         <v>121</v>
       </c>
@@ -5441,6 +5768,13 @@
       <c r="AF29">
         <v>0</v>
       </c>
+      <c r="AG29">
+        <v>10</v>
+      </c>
+      <c r="AH29" t="str">
+        <f t="shared" ref="AH29:AH92" si="22">IF(AG29&gt;0,AH28&amp;";"&amp;Q29&amp;"|"&amp;AG29,AH28)</f>
+        <v>3000|10;3001|10;3002|10</v>
+      </c>
       <c r="AP29">
         <v>100</v>
       </c>
@@ -5483,11 +5817,11 @@
         <v>121</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F44" si="22">VLOOKUP(E30,AO:AW,9,0)</f>
+        <f t="shared" ref="F30:F44" si="23">VLOOKUP(E30,AO:AW,9,0)</f>
         <v>6</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G44" si="23">VLOOKUP(E30,AO:AP,2,0)</f>
+        <f t="shared" ref="G30:G44" si="24">VLOOKUP(E30,AO:AP,2,0)</f>
         <v>100</v>
       </c>
       <c r="H30">
@@ -5531,15 +5865,15 @@
         <v>13</v>
       </c>
       <c r="W30">
-        <f t="shared" ref="W30:Y30" si="24">J6</f>
+        <f t="shared" ref="W30:Y30" si="25">J6</f>
         <v>2</v>
       </c>
       <c r="X30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="Y30" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>31|28|6</v>
       </c>
       <c r="Z30" t="str">
@@ -5565,6 +5899,13 @@
       </c>
       <c r="AF30">
         <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>10</v>
+      </c>
+      <c r="AH30" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10</v>
       </c>
       <c r="AP30">
         <v>100</v>
@@ -5608,11 +5949,11 @@
         <v>121</v>
       </c>
       <c r="F31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="G31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H31">
@@ -5656,15 +5997,15 @@
         <v>16</v>
       </c>
       <c r="W31">
-        <f t="shared" ref="W31:Y31" si="25">J7</f>
+        <f t="shared" ref="W31:Y31" si="26">J7</f>
         <v>15</v>
       </c>
       <c r="X31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>90</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="Z31" t="str">
@@ -5691,6 +6032,13 @@
       <c r="AF31">
         <v>0</v>
       </c>
+      <c r="AG31">
+        <v>10</v>
+      </c>
+      <c r="AH31" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10</v>
+      </c>
       <c r="AO31" t="s">
         <v>115</v>
       </c>
@@ -5736,11 +6084,11 @@
         <v>115</v>
       </c>
       <c r="F32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="G32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H32">
@@ -5784,15 +6132,15 @@
         <v>16</v>
       </c>
       <c r="W32">
-        <f t="shared" ref="W32:Y32" si="26">J8</f>
+        <f t="shared" ref="W32:Y32" si="27">J8</f>
         <v>3</v>
       </c>
       <c r="X32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>90</v>
       </c>
       <c r="Y32" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31|28|6</v>
       </c>
       <c r="Z32" t="str">
@@ -5818,6 +6166,13 @@
       </c>
       <c r="AF32">
         <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>10</v>
+      </c>
+      <c r="AH32" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10</v>
       </c>
       <c r="AP32">
         <v>100</v>
@@ -5861,11 +6216,11 @@
         <v>114</v>
       </c>
       <c r="F33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="G33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H33">
@@ -5909,15 +6264,15 @@
         <v>15</v>
       </c>
       <c r="W33">
-        <f t="shared" ref="W33:Y33" si="27">J9</f>
+        <f t="shared" ref="W33:Y33" si="28">J9</f>
         <v>12</v>
       </c>
       <c r="X33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>22</v>
       </c>
       <c r="Z33" t="str">
@@ -5943,6 +6298,13 @@
       </c>
       <c r="AF33">
         <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>10</v>
+      </c>
+      <c r="AH33" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10</v>
       </c>
       <c r="AP33">
         <v>100</v>
@@ -5986,11 +6348,11 @@
         <v>121</v>
       </c>
       <c r="F34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="G34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H34">
@@ -6034,15 +6396,15 @@
         <v>12</v>
       </c>
       <c r="W34">
-        <f t="shared" ref="W34:Y34" si="28">J10</f>
+        <f t="shared" ref="W34:Y34" si="29">J10</f>
         <v>2</v>
       </c>
       <c r="X34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>90</v>
       </c>
       <c r="Y34" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31|28|6</v>
       </c>
       <c r="Z34" t="str">
@@ -6068,6 +6430,13 @@
       </c>
       <c r="AF34">
         <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>10</v>
+      </c>
+      <c r="AH34" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10</v>
       </c>
       <c r="AP34">
         <v>100</v>
@@ -6111,11 +6480,11 @@
         <v>121</v>
       </c>
       <c r="F35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="G35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H35">
@@ -6159,15 +6528,15 @@
         <v>12</v>
       </c>
       <c r="W35">
-        <f t="shared" ref="W35:Y35" si="29">J11</f>
+        <f t="shared" ref="W35:Y35" si="30">J11</f>
         <v>2</v>
       </c>
       <c r="X35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="Y35" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>31|28|6</v>
       </c>
       <c r="Z35" t="str">
@@ -6193,6 +6562,13 @@
       </c>
       <c r="AF35">
         <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10</v>
       </c>
       <c r="AP35">
         <v>100</v>
@@ -6236,11 +6612,11 @@
         <v>114</v>
       </c>
       <c r="F36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H36">
@@ -6284,15 +6660,15 @@
         <v>8</v>
       </c>
       <c r="W36">
-        <f t="shared" ref="W36:Y36" si="30">J12</f>
+        <f t="shared" ref="W36:Y36" si="31">J12</f>
         <v>2</v>
       </c>
       <c r="X36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>70</v>
       </c>
       <c r="Y36" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>31|28|6</v>
       </c>
       <c r="Z36" t="str">
@@ -6318,6 +6694,13 @@
       </c>
       <c r="AF36">
         <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>100</v>
+      </c>
+      <c r="AH36" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100</v>
       </c>
       <c r="AP36">
         <v>100</v>
@@ -6364,11 +6747,11 @@
         <v>118</v>
       </c>
       <c r="F37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="H37">
@@ -6412,15 +6795,15 @@
         <v>10</v>
       </c>
       <c r="W37">
-        <f t="shared" ref="W37:Y37" si="31">J13</f>
+        <f t="shared" ref="W37:Y37" si="32">J13</f>
         <v>10</v>
       </c>
       <c r="X37">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>70</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>22</v>
       </c>
       <c r="Z37" t="str">
@@ -6447,19 +6830,26 @@
       <c r="AF37">
         <v>0</v>
       </c>
+      <c r="AG37">
+        <v>100</v>
+      </c>
+      <c r="AH37" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100;3010|100</v>
+      </c>
       <c r="AP37">
         <v>100</v>
       </c>
       <c r="AQ37">
-        <f t="shared" ref="AQ37" si="32">AI22+AJ22*AP37</f>
+        <f t="shared" ref="AQ37" si="33">AI22+AJ22*AP37</f>
         <v>531.38</v>
       </c>
       <c r="AR37">
-        <f t="shared" ref="AR37" si="33">AK22+AL22*AP37</f>
+        <f t="shared" ref="AR37" si="34">AK22+AL22*AP37</f>
         <v>43.2</v>
       </c>
       <c r="AS37">
-        <f t="shared" ref="AS37" si="34">AM22+AN22*AP22</f>
+        <f t="shared" ref="AS37" si="35">AM22+AN22*AP22</f>
         <v>63.480000000000004</v>
       </c>
       <c r="AT37">
@@ -6489,11 +6879,11 @@
         <v>118</v>
       </c>
       <c r="F38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="H38">
@@ -6537,15 +6927,15 @@
         <v>8</v>
       </c>
       <c r="W38">
-        <f t="shared" ref="W38:Y38" si="35">J14</f>
+        <f t="shared" ref="W38:Y38" si="36">J14</f>
         <v>8</v>
       </c>
       <c r="X38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>70</v>
       </c>
       <c r="Y38" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>20|31|4</v>
       </c>
       <c r="Z38" t="str">
@@ -6571,6 +6961,13 @@
       </c>
       <c r="AF38">
         <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>100</v>
+      </c>
+      <c r="AH38" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100;3010|100;3011|100</v>
       </c>
     </row>
     <row r="39" spans="2:49" x14ac:dyDescent="0.15">
@@ -6584,11 +6981,11 @@
         <v>120</v>
       </c>
       <c r="F39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="G39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="H39">
@@ -6632,15 +7029,15 @@
         <v>10</v>
       </c>
       <c r="W39">
-        <f t="shared" ref="W39:Y39" si="36">J15</f>
+        <f t="shared" ref="W39:Y39" si="37">J15</f>
         <v>2</v>
       </c>
       <c r="X39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>70</v>
       </c>
       <c r="Y39" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>31|28|6</v>
       </c>
       <c r="Z39" t="str">
@@ -6666,6 +7063,13 @@
       </c>
       <c r="AF39">
         <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>100</v>
+      </c>
+      <c r="AH39" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100;3010|100;3011|100;3012|100</v>
       </c>
       <c r="AP39" t="s">
         <v>109</v>
@@ -6691,11 +7095,11 @@
         <v>119</v>
       </c>
       <c r="F40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="G40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="H40">
@@ -6739,15 +7143,15 @@
         <v>12</v>
       </c>
       <c r="W40">
-        <f t="shared" ref="W40:Y40" si="37">J16</f>
+        <f t="shared" ref="W40:Y40" si="38">J16</f>
         <v>10</v>
       </c>
       <c r="X40">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>70</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>22</v>
       </c>
       <c r="Z40" t="str">
@@ -6774,19 +7178,26 @@
       <c r="AF40">
         <v>0</v>
       </c>
+      <c r="AG40">
+        <v>100</v>
+      </c>
+      <c r="AH40" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100;3010|100;3011|100;3012|100;3013|100</v>
+      </c>
       <c r="AP40">
         <v>250</v>
       </c>
       <c r="AQ40">
-        <f t="shared" ref="AQ40:AQ54" si="38">AI8+AJ8*AP40</f>
+        <f t="shared" ref="AQ40:AQ54" si="39">AI8+AJ8*AP40</f>
         <v>967.5</v>
       </c>
       <c r="AR40">
-        <f t="shared" ref="AR40:AR54" si="39">AK8+AL8*AP40</f>
+        <f t="shared" ref="AR40:AR54" si="40">AK8+AL8*AP40</f>
         <v>97.5</v>
       </c>
       <c r="AS40">
-        <f t="shared" ref="AS40:AS54" si="40">AM8+AN8*AP40</f>
+        <f t="shared" ref="AS40:AS54" si="41">AM8+AN8*AP40</f>
         <v>70</v>
       </c>
       <c r="AT40">
@@ -6794,11 +7205,11 @@
         <v>22</v>
       </c>
       <c r="AU40">
-        <f t="shared" ref="AU40" si="41">INT($AH$3*(1-AS40/(AS40+33)))</f>
+        <f t="shared" ref="AU40" si="42">INT($AH$3*(1-AS40/(AS40+33)))</f>
         <v>134</v>
       </c>
       <c r="AV40">
-        <f t="shared" ref="AV40" si="42">_xlfn.CEILING.MATH(AQ40/AU40,1)</f>
+        <f t="shared" ref="AV40" si="43">_xlfn.CEILING.MATH(AQ40/AU40,1)</f>
         <v>8</v>
       </c>
       <c r="AW40">
@@ -6816,11 +7227,11 @@
         <v>120</v>
       </c>
       <c r="F41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="G41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="H41">
@@ -6864,15 +7275,15 @@
         <v>15</v>
       </c>
       <c r="W41">
-        <f t="shared" ref="W41:Y41" si="43">J17</f>
+        <f t="shared" ref="W41:Y41" si="44">J17</f>
         <v>3</v>
       </c>
       <c r="X41">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>70</v>
       </c>
       <c r="Y41" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>31|28|6</v>
       </c>
       <c r="Z41" t="str">
@@ -6899,31 +7310,38 @@
       <c r="AF41">
         <v>0</v>
       </c>
+      <c r="AG41">
+        <v>100</v>
+      </c>
+      <c r="AH41" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100;3010|100;3011|100;3012|100;3013|100;3014|100</v>
+      </c>
       <c r="AP41">
         <v>250</v>
       </c>
       <c r="AQ41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>536.79999999999995</v>
       </c>
       <c r="AR41">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>195</v>
       </c>
       <c r="AS41">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>77.400000000000006</v>
       </c>
       <c r="AT41">
-        <f t="shared" ref="AT41:AT54" si="44">INT(AR41*(1-$AI$3/(33+$AI$3)))</f>
+        <f t="shared" ref="AT41:AT54" si="45">INT(AR41*(1-$AI$3/(33+$AI$3)))</f>
         <v>45</v>
       </c>
       <c r="AU41">
-        <f t="shared" ref="AU41:AU54" si="45">INT($AH$3*(1-AS41/(AS41+33)))</f>
+        <f t="shared" ref="AU41:AU54" si="46">INT($AH$3*(1-AS41/(AS41+33)))</f>
         <v>125</v>
       </c>
       <c r="AV41">
-        <f t="shared" ref="AV41:AV54" si="46">_xlfn.CEILING.MATH(AQ41/AU41,1)</f>
+        <f t="shared" ref="AV41:AV54" si="47">_xlfn.CEILING.MATH(AQ41/AU41,1)</f>
         <v>5</v>
       </c>
       <c r="AW41">
@@ -6941,11 +7359,11 @@
         <v>118</v>
       </c>
       <c r="F42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="H42">
@@ -6989,15 +7407,15 @@
         <v>10</v>
       </c>
       <c r="W42">
-        <f t="shared" ref="W42:Y42" si="47">J18</f>
+        <f t="shared" ref="W42:Y42" si="48">J18</f>
         <v>8</v>
       </c>
       <c r="X42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>70</v>
       </c>
       <c r="Y42" s="1" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>20|31|4</v>
       </c>
       <c r="Z42" t="str">
@@ -7024,31 +7442,38 @@
       <c r="AF42">
         <v>0</v>
       </c>
+      <c r="AG42">
+        <v>100</v>
+      </c>
+      <c r="AH42" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100;3010|100;3011|100;3012|100;3013|100;3014|100;3015|100</v>
+      </c>
       <c r="AP42">
         <v>250</v>
       </c>
       <c r="AQ42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1210</v>
       </c>
       <c r="AR42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>97.2</v>
       </c>
       <c r="AS42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>87</v>
       </c>
       <c r="AT42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="AU42">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>115</v>
       </c>
       <c r="AV42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="AW42">
@@ -7066,11 +7491,11 @@
         <v>119</v>
       </c>
       <c r="F43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="G43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="H43">
@@ -7114,15 +7539,15 @@
         <v>16</v>
       </c>
       <c r="W43">
-        <f t="shared" ref="W43:Y43" si="48">J19</f>
+        <f t="shared" ref="W43:Y43" si="49">J19</f>
         <v>2</v>
       </c>
       <c r="X43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>70</v>
       </c>
       <c r="Y43" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1|19</v>
       </c>
       <c r="Z43" t="str">
@@ -7149,31 +7574,38 @@
       <c r="AF43">
         <v>0</v>
       </c>
+      <c r="AG43">
+        <v>100</v>
+      </c>
+      <c r="AH43" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100;3010|100;3011|100;3012|100;3013|100;3014|100;3015|100;3016|100</v>
+      </c>
       <c r="AP43">
         <v>250</v>
       </c>
       <c r="AQ43">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>933</v>
       </c>
       <c r="AR43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>97.5</v>
       </c>
       <c r="AS43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>70</v>
       </c>
       <c r="AT43">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="AU43">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>134</v>
       </c>
       <c r="AV43">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="AW43">
@@ -7191,11 +7623,11 @@
         <v>122</v>
       </c>
       <c r="F44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="H44">
@@ -7239,15 +7671,15 @@
         <v>10</v>
       </c>
       <c r="W44">
-        <f t="shared" ref="W44:Y44" si="49">J20</f>
+        <f t="shared" ref="W44:Y44" si="50">J20</f>
         <v>6</v>
       </c>
       <c r="X44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>70</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>22</v>
       </c>
       <c r="Z44" t="str">
@@ -7274,31 +7706,38 @@
       <c r="AF44">
         <v>0</v>
       </c>
+      <c r="AG44">
+        <v>100</v>
+      </c>
+      <c r="AH44" t="str">
+        <f t="shared" si="22"/>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100;3010|100;3011|100;3012|100;3013|100;3014|100;3015|100;3016|100;3017|100</v>
+      </c>
       <c r="AP44">
         <v>250</v>
       </c>
       <c r="AQ44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>991.5</v>
       </c>
       <c r="AR44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>97.5</v>
       </c>
       <c r="AS44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>70</v>
       </c>
       <c r="AT44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="AU44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>134</v>
       </c>
       <c r="AV44">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="AW44">
@@ -7359,15 +7798,15 @@
         <v>15</v>
       </c>
       <c r="W45">
-        <f t="shared" ref="W45:Y45" si="50">J21</f>
+        <f t="shared" ref="W45:Y45" si="51">J21</f>
         <v>8</v>
       </c>
       <c r="X45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>90</v>
       </c>
       <c r="Y45" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>12|20</v>
       </c>
       <c r="Z45" t="str">
@@ -7394,31 +7833,38 @@
       <c r="AF45">
         <v>0</v>
       </c>
+      <c r="AG45">
+        <v>10</v>
+      </c>
+      <c r="AH45" t="str">
+        <f>Q45&amp;"|"&amp;AG45</f>
+        <v>3100|10</v>
+      </c>
       <c r="AP45">
         <v>250</v>
       </c>
       <c r="AQ45">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>967.5</v>
       </c>
       <c r="AR45">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>63</v>
       </c>
       <c r="AS45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>70</v>
       </c>
       <c r="AT45">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14</v>
       </c>
       <c r="AU45">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>134</v>
       </c>
       <c r="AV45">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="AW45">
@@ -7436,11 +7882,11 @@
         <v>121</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46:F63" si="51">VLOOKUP(E46,AO:AW,9,0)</f>
+        <f t="shared" ref="F46:F63" si="52">VLOOKUP(E46,AO:AW,9,0)</f>
         <v>6</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G63" si="52">VLOOKUP(E46,AO:AP,2,0)</f>
+        <f t="shared" ref="G46:G63" si="53">VLOOKUP(E46,AO:AP,2,0)</f>
         <v>100</v>
       </c>
       <c r="H46">
@@ -7484,15 +7930,15 @@
         <v>12</v>
       </c>
       <c r="W46">
-        <f t="shared" ref="W46:Y46" si="53">J22</f>
+        <f t="shared" ref="W46:Y46" si="54">J22</f>
         <v>10</v>
       </c>
       <c r="X46">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>90</v>
       </c>
       <c r="Y46" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>13|36</v>
       </c>
       <c r="Z46" t="str">
@@ -7519,31 +7965,38 @@
       <c r="AF46">
         <v>0</v>
       </c>
+      <c r="AG46">
+        <v>10</v>
+      </c>
+      <c r="AH46" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10</v>
+      </c>
       <c r="AP46">
         <v>250</v>
       </c>
       <c r="AQ46">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>967.5</v>
       </c>
       <c r="AR46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>97.35</v>
       </c>
       <c r="AS46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>70</v>
       </c>
       <c r="AT46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="AU46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>134</v>
       </c>
       <c r="AV46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="AW46">
@@ -7561,11 +8014,11 @@
         <v>114</v>
       </c>
       <c r="F47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="G47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="H47">
@@ -7609,15 +8062,15 @@
         <v>16</v>
       </c>
       <c r="W47">
-        <f t="shared" ref="W47:Y47" si="54">J23</f>
+        <f t="shared" ref="W47:Y47" si="55">J23</f>
         <v>12</v>
       </c>
       <c r="X47">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>90</v>
       </c>
       <c r="Y47" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>13|36</v>
       </c>
       <c r="Z47" t="str">
@@ -7644,31 +8097,38 @@
       <c r="AF47">
         <v>0</v>
       </c>
+      <c r="AG47">
+        <v>10</v>
+      </c>
+      <c r="AH47" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10</v>
+      </c>
       <c r="AP47">
         <v>250</v>
       </c>
       <c r="AQ47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>536.79999999999995</v>
       </c>
       <c r="AR47">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>160.5</v>
       </c>
       <c r="AS47">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>77.400000000000006</v>
       </c>
       <c r="AT47">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>37</v>
       </c>
       <c r="AU47">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>125</v>
       </c>
       <c r="AV47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AW47">
@@ -7686,11 +8146,11 @@
         <v>115</v>
       </c>
       <c r="F48">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="G48">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="H48">
@@ -7734,15 +8194,15 @@
         <v>15</v>
       </c>
       <c r="W48">
-        <f t="shared" ref="W48:Y48" si="55">J24</f>
+        <f t="shared" ref="W48:Y48" si="56">J24</f>
         <v>10</v>
       </c>
       <c r="X48">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>90</v>
       </c>
       <c r="Y48" s="1" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>12|20</v>
       </c>
       <c r="Z48" t="str">
@@ -7769,31 +8229,38 @@
       <c r="AF48">
         <v>0</v>
       </c>
+      <c r="AG48">
+        <v>10</v>
+      </c>
+      <c r="AH48" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10</v>
+      </c>
       <c r="AP48">
         <v>250</v>
       </c>
       <c r="AQ48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>536.79999999999995</v>
       </c>
       <c r="AR48">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>227</v>
       </c>
       <c r="AS48">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>77.400000000000006</v>
       </c>
       <c r="AT48">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>52</v>
       </c>
       <c r="AU48">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>125</v>
       </c>
       <c r="AV48">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AW48">
@@ -7811,11 +8278,11 @@
         <v>114</v>
       </c>
       <c r="F49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="G49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="H49">
@@ -7859,15 +8326,15 @@
         <v>15</v>
       </c>
       <c r="W49">
-        <f t="shared" ref="W49:Y49" si="56">J25</f>
+        <f t="shared" ref="W49:Y49" si="57">J25</f>
         <v>8</v>
       </c>
       <c r="X49">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>90</v>
       </c>
       <c r="Y49" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>12|20|18</v>
       </c>
       <c r="Z49" t="str">
@@ -7894,31 +8361,38 @@
       <c r="AF49">
         <v>0</v>
       </c>
+      <c r="AG49">
+        <v>10</v>
+      </c>
+      <c r="AH49" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10</v>
+      </c>
       <c r="AP49">
         <v>250</v>
       </c>
       <c r="AQ49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1120</v>
       </c>
       <c r="AR49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>97.2</v>
       </c>
       <c r="AS49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>87</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="AU49">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>115</v>
       </c>
       <c r="AV49">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AW49">
@@ -7936,11 +8410,11 @@
         <v>115</v>
       </c>
       <c r="F50">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="G50">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="H50">
@@ -7984,15 +8458,15 @@
         <v>12</v>
       </c>
       <c r="W50">
-        <f t="shared" ref="W50:Y50" si="57">J26</f>
+        <f t="shared" ref="W50:Y50" si="58">J26</f>
         <v>9</v>
       </c>
       <c r="X50">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>90</v>
       </c>
       <c r="Y50" s="1" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>12|20|18</v>
       </c>
       <c r="Z50" t="str">
@@ -8019,31 +8493,38 @@
       <c r="AF50">
         <v>0</v>
       </c>
+      <c r="AG50">
+        <v>10</v>
+      </c>
+      <c r="AH50" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10</v>
+      </c>
       <c r="AP50">
         <v>250</v>
       </c>
       <c r="AQ50">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1222</v>
       </c>
       <c r="AR50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>97.2</v>
       </c>
       <c r="AS50">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>87</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="AU50">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>115</v>
       </c>
       <c r="AV50">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="AW50">
@@ -8061,11 +8542,11 @@
         <v>115</v>
       </c>
       <c r="F51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="G51">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="H51">
@@ -8109,15 +8590,15 @@
         <v>15</v>
       </c>
       <c r="W51">
-        <f t="shared" ref="W51:Y51" si="58">J27</f>
+        <f t="shared" ref="W51:Y51" si="59">J27</f>
         <v>8</v>
       </c>
       <c r="X51">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>90</v>
       </c>
       <c r="Y51" s="1" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>20|31</v>
       </c>
       <c r="Z51" t="str">
@@ -8144,31 +8625,38 @@
       <c r="AF51">
         <v>0</v>
       </c>
+      <c r="AG51">
+        <v>10</v>
+      </c>
+      <c r="AH51" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10</v>
+      </c>
       <c r="AP51">
         <v>250</v>
       </c>
       <c r="AQ51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>536.79999999999995</v>
       </c>
       <c r="AR51">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>171.45</v>
       </c>
       <c r="AS51">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>77.400000000000006</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>39</v>
       </c>
       <c r="AU51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>125</v>
       </c>
       <c r="AV51">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AW51">
@@ -8186,11 +8674,11 @@
         <v>121</v>
       </c>
       <c r="F52">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>6</v>
       </c>
       <c r="G52">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="H52">
@@ -8234,15 +8722,15 @@
         <v>15</v>
       </c>
       <c r="W52">
-        <f t="shared" ref="W52:Y52" si="59">J28</f>
+        <f t="shared" ref="W52:Y52" si="60">J28</f>
         <v>7</v>
       </c>
       <c r="X52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>90</v>
       </c>
       <c r="Y52" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>20|31</v>
       </c>
       <c r="Z52" t="str">
@@ -8269,31 +8757,38 @@
       <c r="AF52">
         <v>0</v>
       </c>
+      <c r="AG52">
+        <v>10</v>
+      </c>
+      <c r="AH52" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10</v>
+      </c>
       <c r="AP52">
         <v>250</v>
       </c>
       <c r="AQ52">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>536.79999999999995</v>
       </c>
       <c r="AR52">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>202.5</v>
       </c>
       <c r="AS52">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>77.400000000000006</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>46</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>125</v>
       </c>
       <c r="AV52">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AW52">
@@ -8311,11 +8806,11 @@
         <v>115</v>
       </c>
       <c r="F53">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="G53">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="H53">
@@ -8359,15 +8854,15 @@
         <v>20</v>
       </c>
       <c r="W53">
-        <f t="shared" ref="W53:Y53" si="60">J29</f>
+        <f t="shared" ref="W53:Y53" si="61">J29</f>
         <v>8</v>
       </c>
       <c r="X53">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>100</v>
       </c>
       <c r="Y53" s="1" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>20|31|12|13</v>
       </c>
       <c r="Z53" t="str">
@@ -8394,31 +8889,38 @@
       <c r="AF53">
         <v>0</v>
       </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10</v>
+      </c>
       <c r="AP53">
         <v>250</v>
       </c>
       <c r="AQ53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1148.1300000000001</v>
       </c>
       <c r="AR53">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>97.2</v>
       </c>
       <c r="AS53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>87</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="AU53">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>115</v>
       </c>
       <c r="AV53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AW53">
@@ -8436,11 +8938,11 @@
         <v>115</v>
       </c>
       <c r="F54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="G54">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="H54">
@@ -8484,15 +8986,15 @@
         <v>8</v>
       </c>
       <c r="W54">
-        <f t="shared" ref="W54:Y54" si="61">J30</f>
+        <f t="shared" ref="W54:Y54" si="62">J30</f>
         <v>8</v>
       </c>
       <c r="X54">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>70</v>
       </c>
       <c r="Y54" s="1" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>20|31|4</v>
       </c>
       <c r="Z54" t="str">
@@ -8519,31 +9021,38 @@
       <c r="AF54">
         <v>0</v>
       </c>
+      <c r="AG54">
+        <v>100</v>
+      </c>
+      <c r="AH54" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10;3109|100</v>
+      </c>
       <c r="AP54">
         <v>250</v>
       </c>
       <c r="AQ54">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1269.3800000000001</v>
       </c>
       <c r="AR54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>97.2</v>
       </c>
       <c r="AS54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>87</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="AU54">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>115</v>
       </c>
       <c r="AV54">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12</v>
       </c>
       <c r="AW54">
@@ -8561,11 +9070,11 @@
         <v>114</v>
       </c>
       <c r="F55">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="G55">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="H55">
@@ -8609,15 +9118,15 @@
         <v>12</v>
       </c>
       <c r="W55">
-        <f t="shared" ref="W55:Y55" si="62">J31</f>
+        <f t="shared" ref="W55:Y55" si="63">J31</f>
         <v>12</v>
       </c>
       <c r="X55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>70</v>
       </c>
       <c r="Y55" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>22</v>
       </c>
       <c r="Z55" t="str">
@@ -8643,6 +9152,13 @@
       </c>
       <c r="AF55">
         <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>100</v>
+      </c>
+      <c r="AH55" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10;3109|100;3110|100</v>
       </c>
     </row>
     <row r="56" spans="2:49" x14ac:dyDescent="0.15">
@@ -8659,11 +9175,11 @@
         <v>120</v>
       </c>
       <c r="F56">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="G56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>180</v>
       </c>
       <c r="H56">
@@ -8707,15 +9223,15 @@
         <v>12</v>
       </c>
       <c r="W56">
-        <f t="shared" ref="W56:Y56" si="63">J32</f>
+        <f t="shared" ref="W56:Y56" si="64">J32</f>
         <v>12</v>
       </c>
       <c r="X56">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>70</v>
       </c>
       <c r="Y56" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>22</v>
       </c>
       <c r="Z56" t="str">
@@ -8741,6 +9257,13 @@
       </c>
       <c r="AF56">
         <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>100</v>
+      </c>
+      <c r="AH56" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10;3109|100;3110|100;3111|100</v>
       </c>
     </row>
     <row r="57" spans="2:49" x14ac:dyDescent="0.15">
@@ -8754,11 +9277,11 @@
         <v>120</v>
       </c>
       <c r="F57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="G57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>180</v>
       </c>
       <c r="H57">
@@ -8802,15 +9325,15 @@
         <v>8</v>
       </c>
       <c r="W57">
-        <f t="shared" ref="W57:Y57" si="64">J33</f>
+        <f t="shared" ref="W57:Y57" si="65">J33</f>
         <v>2</v>
       </c>
       <c r="X57">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>70</v>
       </c>
       <c r="Y57" s="1" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>29|16</v>
       </c>
       <c r="Z57" t="str">
@@ -8836,6 +9359,13 @@
       </c>
       <c r="AF57">
         <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>100</v>
+      </c>
+      <c r="AH57" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10;3109|100;3110|100;3111|100;3112|100</v>
       </c>
     </row>
     <row r="58" spans="2:49" x14ac:dyDescent="0.15">
@@ -8849,11 +9379,11 @@
         <v>119</v>
       </c>
       <c r="F58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="G58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>180</v>
       </c>
       <c r="H58">
@@ -8897,15 +9427,15 @@
         <v>11</v>
       </c>
       <c r="W58">
-        <f t="shared" ref="W58:Y58" si="65">J34</f>
+        <f t="shared" ref="W58:Y58" si="66">J34</f>
         <v>2</v>
       </c>
       <c r="X58">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>70</v>
       </c>
       <c r="Y58" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>31|28|6</v>
       </c>
       <c r="Z58" t="str">
@@ -8931,6 +9461,13 @@
       </c>
       <c r="AF58">
         <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>100</v>
+      </c>
+      <c r="AH58" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10;3109|100;3110|100;3111|100;3112|100;3113|100</v>
       </c>
     </row>
     <row r="59" spans="2:49" x14ac:dyDescent="0.15">
@@ -8944,11 +9481,11 @@
         <v>117</v>
       </c>
       <c r="F59">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="G59">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>180</v>
       </c>
       <c r="H59">
@@ -8992,15 +9529,15 @@
         <v>11</v>
       </c>
       <c r="W59">
-        <f t="shared" ref="W59:Y59" si="66">J35</f>
+        <f t="shared" ref="W59:Y59" si="67">J35</f>
         <v>10</v>
       </c>
       <c r="X59">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>70</v>
       </c>
       <c r="Y59" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>22</v>
       </c>
       <c r="Z59" t="str">
@@ -9026,6 +9563,13 @@
       </c>
       <c r="AF59">
         <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>100</v>
+      </c>
+      <c r="AH59" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10;3109|100;3110|100;3111|100;3112|100;3113|100;3114|100</v>
       </c>
     </row>
     <row r="60" spans="2:49" x14ac:dyDescent="0.15">
@@ -9039,11 +9583,11 @@
         <v>119</v>
       </c>
       <c r="F60">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="G60">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>180</v>
       </c>
       <c r="H60">
@@ -9087,15 +9631,15 @@
         <v>11</v>
       </c>
       <c r="W60">
-        <f t="shared" ref="W60:Y60" si="67">J36</f>
+        <f t="shared" ref="W60:Y60" si="68">J36</f>
         <v>2</v>
       </c>
       <c r="X60">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>70</v>
       </c>
       <c r="Y60" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>31|28|6</v>
       </c>
       <c r="Z60" t="str">
@@ -9121,6 +9665,13 @@
       </c>
       <c r="AF60">
         <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>100</v>
+      </c>
+      <c r="AH60" t="str">
+        <f t="shared" si="22"/>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10;3109|100;3110|100;3111|100;3112|100;3113|100;3114|100;3115|100</v>
       </c>
     </row>
     <row r="61" spans="2:49" x14ac:dyDescent="0.15">
@@ -9134,11 +9685,11 @@
         <v>120</v>
       </c>
       <c r="F61">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="G61">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>180</v>
       </c>
       <c r="H61">
@@ -9182,15 +9733,15 @@
         <v>16</v>
       </c>
       <c r="W61">
-        <f t="shared" ref="W61:Y61" si="68">J37</f>
+        <f t="shared" ref="W61:Y61" si="69">J37</f>
         <v>3</v>
       </c>
       <c r="X61">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>90</v>
       </c>
       <c r="Y61" s="1" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8|15|24</v>
       </c>
       <c r="Z61" t="str">
@@ -9216,6 +9767,13 @@
       </c>
       <c r="AF61">
         <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>10</v>
+      </c>
+      <c r="AH61" t="str">
+        <f>Q61&amp;"|"&amp;AG61</f>
+        <v>3200|10</v>
       </c>
     </row>
     <row r="62" spans="2:49" x14ac:dyDescent="0.15">
@@ -9229,11 +9787,11 @@
         <v>117</v>
       </c>
       <c r="F62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="G62">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>180</v>
       </c>
       <c r="H62">
@@ -9277,15 +9835,15 @@
         <v>16</v>
       </c>
       <c r="W62">
-        <f t="shared" ref="W62:Y62" si="69">J38</f>
+        <f t="shared" ref="W62:Y62" si="70">J38</f>
         <v>2</v>
       </c>
       <c r="X62">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>90</v>
       </c>
       <c r="Y62" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>19</v>
       </c>
       <c r="Z62" t="str">
@@ -9311,6 +9869,13 @@
       </c>
       <c r="AF62">
         <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>10</v>
+      </c>
+      <c r="AH62" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10</v>
       </c>
     </row>
     <row r="63" spans="2:49" x14ac:dyDescent="0.15">
@@ -9324,11 +9889,11 @@
         <v>120</v>
       </c>
       <c r="F63">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="G63">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>180</v>
       </c>
       <c r="H63">
@@ -9372,15 +9937,15 @@
         <v>18</v>
       </c>
       <c r="W63">
-        <f t="shared" ref="W63:Y63" si="70">J39</f>
+        <f t="shared" ref="W63:Y63" si="71">J39</f>
         <v>2</v>
       </c>
       <c r="X63">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>90</v>
       </c>
       <c r="Y63" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>21</v>
       </c>
       <c r="Z63" t="str">
@@ -9406,6 +9971,13 @@
       </c>
       <c r="AF63">
         <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>10</v>
+      </c>
+      <c r="AH63" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10</v>
       </c>
     </row>
     <row r="64" spans="2:49" x14ac:dyDescent="0.15">
@@ -9462,15 +10034,15 @@
         <v>14</v>
       </c>
       <c r="W64">
-        <f t="shared" ref="W64:Y64" si="71">J40</f>
+        <f t="shared" ref="W64:Y64" si="72">J40</f>
         <v>8</v>
       </c>
       <c r="X64">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>90</v>
       </c>
       <c r="Y64" s="1" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>5|31</v>
       </c>
       <c r="Z64" t="str">
@@ -9497,8 +10069,15 @@
       <c r="AF64">
         <v>0</v>
       </c>
+      <c r="AG64">
+        <v>10</v>
+      </c>
+      <c r="AH64" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10</v>
+      </c>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
         <v>61</v>
       </c>
@@ -9509,11 +10088,11 @@
         <v>121</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:F80" si="72">VLOOKUP(E65,AO:AW,9,0)</f>
+        <f t="shared" ref="F65:F80" si="73">VLOOKUP(E65,AO:AW,9,0)</f>
         <v>6</v>
       </c>
       <c r="G65">
-        <f t="shared" ref="G65:G80" si="73">VLOOKUP(E65,AO:AP,2,0)</f>
+        <f t="shared" ref="G65:G80" si="74">VLOOKUP(E65,AO:AP,2,0)</f>
         <v>100</v>
       </c>
       <c r="H65">
@@ -9557,15 +10136,15 @@
         <v>17</v>
       </c>
       <c r="W65">
-        <f t="shared" ref="W65:Y65" si="74">J41</f>
+        <f t="shared" ref="W65:Y65" si="75">J41</f>
         <v>4</v>
       </c>
       <c r="X65">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>90</v>
       </c>
       <c r="Y65" s="1" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>27|31</v>
       </c>
       <c r="Z65" t="str">
@@ -9592,8 +10171,15 @@
       <c r="AF65">
         <v>0</v>
       </c>
+      <c r="AG65">
+        <v>10</v>
+      </c>
+      <c r="AH65" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10</v>
+      </c>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>62</v>
       </c>
@@ -9604,11 +10190,11 @@
         <v>121</v>
       </c>
       <c r="F66">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>6</v>
       </c>
       <c r="G66">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>100</v>
       </c>
       <c r="H66">
@@ -9652,15 +10238,15 @@
         <v>12</v>
       </c>
       <c r="W66">
-        <f t="shared" ref="W66:Y66" si="75">J42</f>
+        <f t="shared" ref="W66:Y66" si="76">J42</f>
         <v>2</v>
       </c>
       <c r="X66">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>90</v>
       </c>
       <c r="Y66" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>31|24</v>
       </c>
       <c r="Z66" t="str">
@@ -9687,8 +10273,15 @@
       <c r="AF66">
         <v>0</v>
       </c>
+      <c r="AG66">
+        <v>10</v>
+      </c>
+      <c r="AH66" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10</v>
+      </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
         <v>63</v>
       </c>
@@ -9699,11 +10292,11 @@
         <v>115</v>
       </c>
       <c r="F67">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>9</v>
       </c>
       <c r="G67">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>100</v>
       </c>
       <c r="H67">
@@ -9747,15 +10340,15 @@
         <v>15</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:Y67" si="76">J43</f>
+        <f t="shared" ref="W67:Y67" si="77">J43</f>
         <v>8</v>
       </c>
       <c r="X67">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>90</v>
       </c>
       <c r="Y67" s="1" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>27|34</v>
       </c>
       <c r="Z67" t="str">
@@ -9782,8 +10375,15 @@
       <c r="AF67">
         <v>0</v>
       </c>
+      <c r="AG67">
+        <v>10</v>
+      </c>
+      <c r="AH67" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10</v>
+      </c>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>64</v>
       </c>
@@ -9794,11 +10394,11 @@
         <v>121</v>
       </c>
       <c r="F68">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>6</v>
       </c>
       <c r="G68">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>100</v>
       </c>
       <c r="H68">
@@ -9842,15 +10442,15 @@
         <v>17</v>
       </c>
       <c r="W68">
-        <f t="shared" ref="W68:Y68" si="77">J44</f>
+        <f t="shared" ref="W68:Y68" si="78">J44</f>
         <v>3</v>
       </c>
       <c r="X68">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>90</v>
       </c>
       <c r="Y68" s="1" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1|21</v>
       </c>
       <c r="Z68" t="str">
@@ -9877,8 +10477,15 @@
       <c r="AF68">
         <v>0</v>
       </c>
+      <c r="AG68">
+        <v>10</v>
+      </c>
+      <c r="AH68" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10</v>
+      </c>
     </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C69" t="s">
         <v>65</v>
       </c>
@@ -9889,11 +10496,11 @@
         <v>115</v>
       </c>
       <c r="F69">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>9</v>
       </c>
       <c r="G69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>100</v>
       </c>
       <c r="H69">
@@ -9937,15 +10544,15 @@
         <v>18</v>
       </c>
       <c r="W69">
-        <f t="shared" ref="W69:Y69" si="78">J45</f>
+        <f t="shared" ref="W69:Y69" si="79">J45</f>
         <v>17</v>
       </c>
       <c r="X69">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>100</v>
       </c>
       <c r="Y69" s="1" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>27|22|34</v>
       </c>
       <c r="Z69" t="str">
@@ -9972,8 +10579,15 @@
       <c r="AF69">
         <v>0</v>
       </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10</v>
+      </c>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C70" t="s">
         <v>74</v>
       </c>
@@ -9984,11 +10598,11 @@
         <v>114</v>
       </c>
       <c r="F70">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="G70">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>100</v>
       </c>
       <c r="H70">
@@ -10032,15 +10646,15 @@
         <v>10</v>
       </c>
       <c r="W70">
-        <f t="shared" ref="W70:Y70" si="79">J46</f>
+        <f t="shared" ref="W70:Y70" si="80">J46</f>
         <v>2</v>
       </c>
       <c r="X70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>70</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2</v>
       </c>
       <c r="Z70" t="str">
@@ -10067,8 +10681,15 @@
       <c r="AF70">
         <v>0</v>
       </c>
+      <c r="AG70">
+        <v>100</v>
+      </c>
+      <c r="AH70" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100</v>
+      </c>
     </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
         <v>75</v>
       </c>
@@ -10079,11 +10700,11 @@
         <v>115</v>
       </c>
       <c r="F71">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>9</v>
       </c>
       <c r="G71">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>100</v>
       </c>
       <c r="H71">
@@ -10127,15 +10748,15 @@
         <v>8</v>
       </c>
       <c r="W71">
-        <f t="shared" ref="W71:Y71" si="80">J47</f>
+        <f t="shared" ref="W71:Y71" si="81">J47</f>
         <v>2</v>
       </c>
       <c r="X71">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>70</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>16</v>
       </c>
       <c r="Z71" t="str">
@@ -10162,8 +10783,15 @@
       <c r="AF71">
         <v>0</v>
       </c>
+      <c r="AG71">
+        <v>100</v>
+      </c>
+      <c r="AH71" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100</v>
+      </c>
     </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
         <v>86</v>
       </c>
@@ -10174,11 +10802,11 @@
         <v>114</v>
       </c>
       <c r="F72">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>100</v>
       </c>
       <c r="H72">
@@ -10222,15 +10850,15 @@
         <v>12</v>
       </c>
       <c r="W72">
-        <f t="shared" ref="W72:Y72" si="81">J48</f>
+        <f t="shared" ref="W72:Y72" si="82">J48</f>
         <v>8</v>
       </c>
       <c r="X72">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>70</v>
       </c>
       <c r="Y72" s="1" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>27|34</v>
       </c>
       <c r="Z72" t="str">
@@ -10257,8 +10885,15 @@
       <c r="AF72">
         <v>0</v>
       </c>
+      <c r="AG72">
+        <v>100</v>
+      </c>
+      <c r="AH72" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100;3211|100</v>
+      </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>52</v>
       </c>
@@ -10272,11 +10907,11 @@
         <v>120</v>
       </c>
       <c r="F73">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="G73">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>180</v>
       </c>
       <c r="H73">
@@ -10320,15 +10955,15 @@
         <v>10</v>
       </c>
       <c r="W73">
-        <f t="shared" ref="W73:Y73" si="82">J49</f>
+        <f t="shared" ref="W73:Y73" si="83">J49</f>
         <v>2</v>
       </c>
       <c r="X73">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>70</v>
       </c>
       <c r="Y73" s="1" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>31|28|6</v>
       </c>
       <c r="Z73" t="str">
@@ -10355,8 +10990,15 @@
       <c r="AF73">
         <v>0</v>
       </c>
+      <c r="AG73">
+        <v>100</v>
+      </c>
+      <c r="AH73" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100;3211|100;3212|100</v>
+      </c>
     </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -10367,11 +11009,11 @@
         <v>120</v>
       </c>
       <c r="F74">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="G74">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>180</v>
       </c>
       <c r="H74">
@@ -10415,15 +11057,15 @@
         <v>12</v>
       </c>
       <c r="W74">
-        <f t="shared" ref="W74:Y74" si="83">J50</f>
+        <f t="shared" ref="W74:Y74" si="84">J50</f>
         <v>12</v>
       </c>
       <c r="X74">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>70</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>22</v>
       </c>
       <c r="Z74" t="str">
@@ -10450,8 +11092,15 @@
       <c r="AF74">
         <v>0</v>
       </c>
+      <c r="AG74">
+        <v>100</v>
+      </c>
+      <c r="AH74" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100;3211|100;3212|100;3213|100</v>
+      </c>
     </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
         <v>55</v>
       </c>
@@ -10462,11 +11111,11 @@
         <v>119</v>
       </c>
       <c r="F75">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4</v>
       </c>
       <c r="G75">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>180</v>
       </c>
       <c r="H75">
@@ -10510,15 +11159,15 @@
         <v>10</v>
       </c>
       <c r="W75">
-        <f t="shared" ref="W75:Y75" si="84">J51</f>
+        <f t="shared" ref="W75:Y75" si="85">J51</f>
         <v>10</v>
       </c>
       <c r="X75">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>70</v>
       </c>
       <c r="Y75" s="1" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>20|31|4</v>
       </c>
       <c r="Z75" t="str">
@@ -10545,8 +11194,15 @@
       <c r="AF75">
         <v>0</v>
       </c>
+      <c r="AG75">
+        <v>100</v>
+      </c>
+      <c r="AH75" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100;3211|100;3212|100;3213|100;3214|100</v>
+      </c>
     </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
         <v>56</v>
       </c>
@@ -10557,11 +11213,11 @@
         <v>119</v>
       </c>
       <c r="F76">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4</v>
       </c>
       <c r="G76">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>180</v>
       </c>
       <c r="H76">
@@ -10605,15 +11261,15 @@
         <v>8</v>
       </c>
       <c r="W76">
-        <f t="shared" ref="W76:Y76" si="85">J52</f>
+        <f t="shared" ref="W76:Y76" si="86">J52</f>
         <v>2</v>
       </c>
       <c r="X76">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>70</v>
       </c>
       <c r="Y76" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="Z76" t="str">
@@ -10640,8 +11296,15 @@
       <c r="AF76">
         <v>0</v>
       </c>
+      <c r="AG76">
+        <v>100</v>
+      </c>
+      <c r="AH76" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100;3211|100;3212|100;3213|100;3214|100;3215|100</v>
+      </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
         <v>58</v>
       </c>
@@ -10652,11 +11315,11 @@
         <v>117</v>
       </c>
       <c r="F77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="G77">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>180</v>
       </c>
       <c r="H77">
@@ -10700,15 +11363,15 @@
         <v>13</v>
       </c>
       <c r="W77">
-        <f t="shared" ref="W77:Y77" si="86">J53</f>
+        <f t="shared" ref="W77:Y77" si="87">J53</f>
         <v>2</v>
       </c>
       <c r="X77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>70</v>
       </c>
       <c r="Y77" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>22</v>
       </c>
       <c r="Z77" t="str">
@@ -10735,8 +11398,15 @@
       <c r="AF77">
         <v>0</v>
       </c>
+      <c r="AG77">
+        <v>100</v>
+      </c>
+      <c r="AH77" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100;3211|100;3212|100;3213|100;3214|100;3215|100;3216|100</v>
+      </c>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
         <v>59</v>
       </c>
@@ -10747,11 +11417,11 @@
         <v>117</v>
       </c>
       <c r="F78">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="G78">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>180</v>
       </c>
       <c r="H78">
@@ -10795,15 +11465,15 @@
         <v>13</v>
       </c>
       <c r="W78">
-        <f t="shared" ref="W78:Y78" si="87">J54</f>
+        <f t="shared" ref="W78:Y78" si="88">J54</f>
         <v>12</v>
       </c>
       <c r="X78">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>70</v>
       </c>
       <c r="Y78" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>22</v>
       </c>
       <c r="Z78" t="str">
@@ -10830,8 +11500,15 @@
       <c r="AF78">
         <v>0</v>
       </c>
+      <c r="AG78">
+        <v>100</v>
+      </c>
+      <c r="AH78" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100;3211|100;3212|100;3213|100;3214|100;3215|100;3216|100;3217|100</v>
+      </c>
     </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -10842,11 +11519,11 @@
         <v>120</v>
       </c>
       <c r="F79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="G79">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>180</v>
       </c>
       <c r="H79">
@@ -10890,15 +11567,15 @@
         <v>15</v>
       </c>
       <c r="W79">
-        <f t="shared" ref="W79:Y79" si="88">J55</f>
+        <f t="shared" ref="W79:Y79" si="89">J55</f>
         <v>3</v>
       </c>
       <c r="X79">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>70</v>
       </c>
       <c r="Y79" s="1" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1|19</v>
       </c>
       <c r="Z79" t="str">
@@ -10925,8 +11602,15 @@
       <c r="AF79">
         <v>0</v>
       </c>
+      <c r="AG79">
+        <v>100</v>
+      </c>
+      <c r="AH79" t="str">
+        <f t="shared" si="22"/>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100;3211|100;3212|100;3213|100;3214|100;3215|100;3216|100;3217|100;3218|100</v>
+      </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -10937,11 +11621,11 @@
         <v>119</v>
       </c>
       <c r="F80">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4</v>
       </c>
       <c r="G80">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>180</v>
       </c>
       <c r="H80">
@@ -10985,15 +11669,15 @@
         <v>15</v>
       </c>
       <c r="W80">
-        <f t="shared" ref="W80:Y80" si="89">J56</f>
+        <f t="shared" ref="W80:Y80" si="90">J56</f>
         <v>5</v>
       </c>
       <c r="X80">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>90</v>
       </c>
       <c r="Y80" s="1" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>12|31</v>
       </c>
       <c r="Z80" t="str">
@@ -11020,8 +11704,15 @@
       <c r="AF80">
         <v>0</v>
       </c>
+      <c r="AG80">
+        <v>10</v>
+      </c>
+      <c r="AH80" t="str">
+        <f>Q80&amp;"|"&amp;AG80</f>
+        <v>3300|10</v>
+      </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C81" t="s">
         <v>79</v>
       </c>
@@ -11075,15 +11766,15 @@
         <v>12</v>
       </c>
       <c r="W81">
-        <f t="shared" ref="W81:Y81" si="90">J57</f>
+        <f t="shared" ref="W81:Y81" si="91">J57</f>
         <v>8</v>
       </c>
       <c r="X81">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>90</v>
       </c>
       <c r="Y81" s="1" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>12|31</v>
       </c>
       <c r="Z81" t="str">
@@ -11110,8 +11801,15 @@
       <c r="AF81">
         <v>0</v>
       </c>
+      <c r="AG81">
+        <v>10</v>
+      </c>
+      <c r="AH81" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10</v>
+      </c>
     </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
         <v>76</v>
       </c>
@@ -11122,11 +11820,11 @@
         <v>121</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82:F90" si="91">VLOOKUP(E82,AO:AW,9,0)</f>
+        <f t="shared" ref="F82:F90" si="92">VLOOKUP(E82,AO:AW,9,0)</f>
         <v>6</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82:G90" si="92">VLOOKUP(E82,AO:AP,2,0)</f>
+        <f t="shared" ref="G82:G90" si="93">VLOOKUP(E82,AO:AP,2,0)</f>
         <v>100</v>
       </c>
       <c r="H82">
@@ -11170,15 +11868,15 @@
         <v>12</v>
       </c>
       <c r="W82">
-        <f t="shared" ref="W82:Y82" si="93">J58</f>
+        <f t="shared" ref="W82:Y82" si="94">J58</f>
         <v>6</v>
       </c>
       <c r="X82">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>90</v>
       </c>
       <c r="Y82" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>34</v>
       </c>
       <c r="Z82" t="str">
@@ -11205,8 +11903,15 @@
       <c r="AF82">
         <v>0</v>
       </c>
+      <c r="AG82">
+        <v>10</v>
+      </c>
+      <c r="AH82" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10</v>
+      </c>
     </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
         <v>77</v>
       </c>
@@ -11217,11 +11922,11 @@
         <v>121</v>
       </c>
       <c r="F83">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6</v>
       </c>
       <c r="G83">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>100</v>
       </c>
       <c r="H83">
@@ -11265,15 +11970,15 @@
         <v>12</v>
       </c>
       <c r="W83">
-        <f t="shared" ref="W83:Y83" si="94">J59</f>
+        <f t="shared" ref="W83:Y83" si="95">J59</f>
         <v>2</v>
       </c>
       <c r="X83">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>90</v>
       </c>
       <c r="Y83" s="1" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>12|31</v>
       </c>
       <c r="Z83" t="str">
@@ -11300,8 +12005,15 @@
       <c r="AF83">
         <v>0</v>
       </c>
+      <c r="AG83">
+        <v>10</v>
+      </c>
+      <c r="AH83" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10;3303|10</v>
+      </c>
     </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
         <v>78</v>
       </c>
@@ -11312,11 +12024,11 @@
         <v>121</v>
       </c>
       <c r="F84">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6</v>
       </c>
       <c r="G84">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>100</v>
       </c>
       <c r="H84">
@@ -11360,15 +12072,15 @@
         <v>14</v>
       </c>
       <c r="W84">
-        <f t="shared" ref="W84:Y84" si="95">J60</f>
+        <f t="shared" ref="W84:Y84" si="96">J60</f>
         <v>3</v>
       </c>
       <c r="X84">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>90</v>
       </c>
       <c r="Y84" s="1" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>20|31</v>
       </c>
       <c r="Z84" t="str">
@@ -11395,8 +12107,15 @@
       <c r="AF84">
         <v>0</v>
       </c>
+      <c r="AG84">
+        <v>10</v>
+      </c>
+      <c r="AH84" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10</v>
+      </c>
     </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C85" t="s">
         <v>80</v>
       </c>
@@ -11407,11 +12126,11 @@
         <v>115</v>
       </c>
       <c r="F85">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>9</v>
       </c>
       <c r="G85">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>100</v>
       </c>
       <c r="H85">
@@ -11455,15 +12174,15 @@
         <v>11</v>
       </c>
       <c r="W85">
-        <f t="shared" ref="W85:Y85" si="96">J61</f>
+        <f t="shared" ref="W85:Y85" si="97">J61</f>
         <v>8</v>
       </c>
       <c r="X85">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>90</v>
       </c>
       <c r="Y85" s="1" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>12|31</v>
       </c>
       <c r="Z85" t="str">
@@ -11490,8 +12209,15 @@
       <c r="AF85">
         <v>0</v>
       </c>
+      <c r="AG85">
+        <v>10</v>
+      </c>
+      <c r="AH85" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10</v>
+      </c>
     </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
         <v>82</v>
       </c>
@@ -11502,11 +12228,11 @@
         <v>114</v>
       </c>
       <c r="F86">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3</v>
       </c>
       <c r="G86">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>100</v>
       </c>
       <c r="H86">
@@ -11550,15 +12276,15 @@
         <v>13</v>
       </c>
       <c r="W86">
-        <f t="shared" ref="W86:Y86" si="97">J62</f>
+        <f t="shared" ref="W86:Y86" si="98">J62</f>
         <v>2</v>
       </c>
       <c r="X86">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>90</v>
       </c>
       <c r="Y86" s="1" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>31|28|6</v>
       </c>
       <c r="Z86" t="str">
@@ -11585,8 +12311,15 @@
       <c r="AF86">
         <v>0</v>
       </c>
+      <c r="AG86">
+        <v>10</v>
+      </c>
+      <c r="AH86" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10</v>
+      </c>
     </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
         <v>57</v>
       </c>
@@ -11597,11 +12330,11 @@
         <v>121</v>
       </c>
       <c r="F87">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6</v>
       </c>
       <c r="G87">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>100</v>
       </c>
       <c r="H87">
@@ -11645,15 +12378,15 @@
         <v>15</v>
       </c>
       <c r="W87">
-        <f t="shared" ref="W87:Y87" si="98">J63</f>
+        <f t="shared" ref="W87:Y87" si="99">J63</f>
         <v>2</v>
       </c>
       <c r="X87">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>90</v>
       </c>
       <c r="Y87" s="1" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>22|28</v>
       </c>
       <c r="Z87" t="str">
@@ -11680,8 +12413,15 @@
       <c r="AF87">
         <v>0</v>
       </c>
+      <c r="AG87">
+        <v>10</v>
+      </c>
+      <c r="AH87" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10</v>
+      </c>
     </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
         <v>83</v>
       </c>
@@ -11692,11 +12432,11 @@
         <v>115</v>
       </c>
       <c r="F88">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>9</v>
       </c>
       <c r="G88">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>100</v>
       </c>
       <c r="H88">
@@ -11740,15 +12480,15 @@
         <v>15</v>
       </c>
       <c r="W88">
-        <f t="shared" ref="W88:Y88" si="99">J64</f>
+        <f t="shared" ref="W88:Y88" si="100">J64</f>
         <v>3</v>
       </c>
       <c r="X88">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>100</v>
       </c>
       <c r="Y88" s="1" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>12|29|31|35</v>
       </c>
       <c r="Z88" t="str">
@@ -11775,8 +12515,15 @@
       <c r="AF88">
         <v>0</v>
       </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10</v>
+      </c>
     </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
         <v>87</v>
       </c>
@@ -11787,11 +12534,11 @@
         <v>114</v>
       </c>
       <c r="F89">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3</v>
       </c>
       <c r="G89">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>100</v>
       </c>
       <c r="H89">
@@ -11835,15 +12582,15 @@
         <v>10</v>
       </c>
       <c r="W89">
-        <f t="shared" ref="W89:Y89" si="100">J65</f>
+        <f t="shared" ref="W89:Y89" si="101">J65</f>
         <v>2</v>
       </c>
       <c r="X89">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>70</v>
       </c>
       <c r="Y89" s="1" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>2|31</v>
       </c>
       <c r="Z89" t="str">
@@ -11870,8 +12617,15 @@
       <c r="AF89">
         <v>0</v>
       </c>
+      <c r="AG89">
+        <v>100</v>
+      </c>
+      <c r="AH89" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10;3309|100</v>
+      </c>
     </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C90" t="s">
         <v>88</v>
       </c>
@@ -11882,11 +12636,11 @@
         <v>121</v>
       </c>
       <c r="F90">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6</v>
       </c>
       <c r="G90">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>100</v>
       </c>
       <c r="H90">
@@ -11930,15 +12684,15 @@
         <v>8</v>
       </c>
       <c r="W90">
-        <f t="shared" ref="W90:Y90" si="101">J66</f>
+        <f t="shared" ref="W90:Y90" si="102">J66</f>
         <v>2</v>
       </c>
       <c r="X90">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>70</v>
       </c>
       <c r="Y90" s="1" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>2|31</v>
       </c>
       <c r="Z90" t="str">
@@ -11965,8 +12719,15 @@
       <c r="AF90">
         <v>0</v>
       </c>
+      <c r="AG90">
+        <v>100</v>
+      </c>
+      <c r="AH90" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10;3309|100;3310|100</v>
+      </c>
     </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:34" x14ac:dyDescent="0.15">
       <c r="Q91">
         <v>3311</v>
       </c>
@@ -11990,15 +12751,15 @@
         <v>10</v>
       </c>
       <c r="W91">
-        <f t="shared" ref="W91:Y91" si="102">J67</f>
+        <f t="shared" ref="W91:Y91" si="103">J67</f>
         <v>3</v>
       </c>
       <c r="X91">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>70</v>
       </c>
       <c r="Y91" s="1" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2|31|12</v>
       </c>
       <c r="Z91" t="str">
@@ -12025,52 +12786,59 @@
       <c r="AF91">
         <v>0</v>
       </c>
+      <c r="AG91">
+        <v>100</v>
+      </c>
+      <c r="AH91" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10;3309|100;3310|100;3311|100</v>
+      </c>
     </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:34" x14ac:dyDescent="0.15">
       <c r="Q92">
         <v>3312</v>
       </c>
       <c r="R92" t="str">
-        <f t="shared" ref="R92:R103" si="103">C68</f>
+        <f t="shared" ref="R92:R103" si="104">C68</f>
         <v>小恶魔</v>
       </c>
       <c r="S92">
-        <f t="shared" ref="S92:S114" si="104">G68</f>
+        <f t="shared" ref="S92:S114" si="105">G68</f>
         <v>100</v>
       </c>
       <c r="T92">
-        <f t="shared" ref="T92:T114" si="105">F68</f>
+        <f t="shared" ref="T92:T114" si="106">F68</f>
         <v>6</v>
       </c>
       <c r="U92">
         <v>100</v>
       </c>
       <c r="V92">
-        <f t="shared" ref="V92:V114" si="106">I68</f>
+        <f t="shared" ref="V92:V114" si="107">I68</f>
         <v>8</v>
       </c>
       <c r="W92">
-        <f t="shared" ref="W92:Y92" si="107">J68</f>
+        <f t="shared" ref="W92:Y92" si="108">J68</f>
         <v>2</v>
       </c>
       <c r="X92">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>70</v>
       </c>
       <c r="Y92" s="1" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>2|31</v>
       </c>
       <c r="Z92" t="str">
-        <f t="shared" ref="Z92:Z114" si="108">M68</f>
+        <f t="shared" ref="Z92:Z114" si="109">M68</f>
         <v>身体|头部|腿部</v>
       </c>
       <c r="AA92" t="str">
-        <f t="shared" ref="AA92:AA114" si="109">D68</f>
+        <f t="shared" ref="AA92:AA114" si="110">D68</f>
         <v>2413|0.2;2405|0.1;2400|0.05;2401|0.05;2402|0.05;2300|0.2;2301|0.2</v>
       </c>
       <c r="AB92">
-        <f t="shared" ref="AB92:AB102" si="110">H68</f>
+        <f t="shared" ref="AB92:AB102" si="111">H68</f>
         <v>0</v>
       </c>
       <c r="AC92">
@@ -12085,52 +12853,59 @@
       <c r="AF92">
         <v>0</v>
       </c>
+      <c r="AG92">
+        <v>100</v>
+      </c>
+      <c r="AH92" t="str">
+        <f t="shared" si="22"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10;3309|100;3310|100;3311|100;3312|100</v>
+      </c>
     </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:34" x14ac:dyDescent="0.15">
       <c r="Q93">
         <v>3313</v>
       </c>
       <c r="R93" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>翅魔</v>
       </c>
       <c r="S93">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>100</v>
       </c>
       <c r="T93">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>9</v>
       </c>
       <c r="U93">
         <v>100</v>
       </c>
       <c r="V93">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>14</v>
       </c>
       <c r="W93">
-        <f t="shared" ref="W93:Y93" si="111">J69</f>
+        <f t="shared" ref="W93:Y93" si="112">J69</f>
         <v>3</v>
       </c>
       <c r="X93">
+        <f t="shared" si="112"/>
+        <v>70</v>
+      </c>
+      <c r="Y93" s="1" t="str">
+        <f t="shared" si="112"/>
+        <v>1|2</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|翅膀</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="110"/>
+        <v>2413|0.2;2405|0.1;2400|0.05;2401|0.05;2402|0.05;2300|0.2;2301|0.2</v>
+      </c>
+      <c r="AB93">
         <f t="shared" si="111"/>
-        <v>70</v>
-      </c>
-      <c r="Y93" s="1" t="str">
-        <f t="shared" si="111"/>
-        <v>1|2</v>
-      </c>
-      <c r="Z93" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|翅膀</v>
-      </c>
-      <c r="AA93" t="str">
-        <f t="shared" si="109"/>
-        <v>2413|0.2;2405|0.1;2400|0.05;2401|0.05;2402|0.05;2300|0.2;2301|0.2</v>
-      </c>
-      <c r="AB93">
-        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="AC93">
@@ -12145,52 +12920,59 @@
       <c r="AF93">
         <v>0</v>
       </c>
+      <c r="AG93">
+        <v>100</v>
+      </c>
+      <c r="AH93" t="str">
+        <f t="shared" ref="AH93:AH114" si="113">IF(AG93&gt;0,AH92&amp;";"&amp;Q93&amp;"|"&amp;AG93,AH92)</f>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10;3309|100;3310|100;3311|100;3312|100;3313|100</v>
+      </c>
     </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:34" x14ac:dyDescent="0.15">
       <c r="Q94">
         <v>3314</v>
       </c>
       <c r="R94" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>蚁兽</v>
       </c>
       <c r="S94">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>100</v>
       </c>
       <c r="T94">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="U94">
         <v>100</v>
       </c>
       <c r="V94">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>14</v>
       </c>
       <c r="W94">
-        <f t="shared" ref="W94:Y94" si="112">J70</f>
+        <f t="shared" ref="W94:Y94" si="114">J70</f>
         <v>2</v>
       </c>
       <c r="X94">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>70</v>
       </c>
       <c r="Y94" s="1" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1|2</v>
       </c>
       <c r="Z94" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>身体|头部|腿部</v>
       </c>
       <c r="AA94" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2413|0.2;2405|0.1;2400|0.05;2401|0.05;2402|0.05;2300|0.2;2301|0.2</v>
       </c>
       <c r="AB94">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="AC94">
@@ -12205,52 +12987,59 @@
       <c r="AF94">
         <v>0</v>
       </c>
+      <c r="AG94">
+        <v>100</v>
+      </c>
+      <c r="AH94" t="str">
+        <f t="shared" si="113"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10;3309|100;3310|100;3311|100;3312|100;3313|100;3314|100</v>
+      </c>
     </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:34" x14ac:dyDescent="0.15">
       <c r="Q95">
         <v>3315</v>
       </c>
       <c r="R95" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>火元素</v>
       </c>
       <c r="S95">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>100</v>
       </c>
       <c r="T95">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>9</v>
       </c>
       <c r="U95">
         <v>100</v>
       </c>
       <c r="V95">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>10</v>
       </c>
       <c r="W95">
-        <f t="shared" ref="W95:Y95" si="113">J71</f>
+        <f t="shared" ref="W95:Y95" si="115">J71</f>
         <v>2</v>
       </c>
       <c r="X95">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>70</v>
       </c>
       <c r="Y95" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>12</v>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>身体|头部|腿部</v>
       </c>
       <c r="AA95" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2413|0.2;2405|0.1;2400|0.05;2401|0.05;2402|0.05;2300|0.2;2301|0.2</v>
       </c>
       <c r="AB95">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AC95">
@@ -12265,1072 +13054,1210 @@
       <c r="AF95">
         <v>0</v>
       </c>
+      <c r="AG95">
+        <v>100</v>
+      </c>
+      <c r="AH95" t="str">
+        <f t="shared" si="113"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10;3309|100;3310|100;3311|100;3312|100;3313|100;3314|100;3315|100</v>
+      </c>
     </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:34" x14ac:dyDescent="0.15">
       <c r="Q96">
         <v>3316</v>
       </c>
       <c r="R96" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>深渊领主</v>
       </c>
       <c r="S96">
+        <f t="shared" si="105"/>
+        <v>100</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="106"/>
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>100</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="107"/>
+        <v>9</v>
+      </c>
+      <c r="W96">
+        <f t="shared" ref="W96:Y96" si="116">J72</f>
+        <v>4</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="116"/>
+        <v>70</v>
+      </c>
+      <c r="Y96" s="1" t="str">
+        <f t="shared" si="116"/>
+        <v>12|19</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="110"/>
+        <v>2413|0.2;2405|0.1;2400|0.05;2401|0.05;2402|0.05;2300|0.2;2301|0.2</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>2</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>100</v>
+      </c>
+      <c r="AH96" t="str">
+        <f t="shared" si="113"/>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10;3309|100;3310|100;3311|100;3312|100;3313|100;3314|100;3315|100;3316|100</v>
+      </c>
+    </row>
+    <row r="97" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q97">
+        <v>3400</v>
+      </c>
+      <c r="R97" t="str">
         <f t="shared" si="104"/>
-        <v>100</v>
-      </c>
-      <c r="T96">
+        <v>正义之镰·肖恩</v>
+      </c>
+      <c r="S97">
         <f t="shared" si="105"/>
+        <v>180</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="106"/>
+        <v>8</v>
+      </c>
+      <c r="U97">
+        <v>100</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="107"/>
+        <v>12</v>
+      </c>
+      <c r="W97">
+        <f t="shared" ref="W97:Y97" si="117">J73</f>
+        <v>10</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="117"/>
+        <v>90</v>
+      </c>
+      <c r="Y97" s="1" t="str">
+        <f t="shared" si="117"/>
+        <v>26|31</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>1</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH97" t="str">
+        <f>Q97&amp;"|"&amp;AG97</f>
+        <v>3400|10</v>
+      </c>
+    </row>
+    <row r="98" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q98">
+        <v>3401</v>
+      </c>
+      <c r="R98" t="str">
+        <f t="shared" si="104"/>
+        <v>灵魂女王·塞拉</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="105"/>
+        <v>180</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="106"/>
+        <v>8</v>
+      </c>
+      <c r="U98">
+        <v>100</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="107"/>
+        <v>11</v>
+      </c>
+      <c r="W98">
+        <f t="shared" ref="W98:Y98" si="118">J74</f>
+        <v>12</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="118"/>
+        <v>90</v>
+      </c>
+      <c r="Y98" s="1" t="str">
+        <f t="shared" si="118"/>
+        <v>26|4|31</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>1</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH98" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10</v>
+      </c>
+    </row>
+    <row r="99" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q99">
+        <v>3402</v>
+      </c>
+      <c r="R99" t="str">
+        <f t="shared" si="104"/>
+        <v>死亡阴影·摩多</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="105"/>
+        <v>180</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="106"/>
+        <v>4</v>
+      </c>
+      <c r="U99">
+        <v>100</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="107"/>
+        <v>15</v>
+      </c>
+      <c r="W99">
+        <f t="shared" ref="W99:Y99" si="119">J75</f>
         <v>3</v>
       </c>
-      <c r="U96">
-        <v>100</v>
-      </c>
-      <c r="V96">
+      <c r="X99">
+        <f t="shared" si="119"/>
+        <v>90</v>
+      </c>
+      <c r="Y99" s="1" t="str">
+        <f t="shared" si="119"/>
+        <v>21|28|31</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>1</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH99" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10</v>
+      </c>
+    </row>
+    <row r="100" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q100">
+        <v>3403</v>
+      </c>
+      <c r="R100" t="str">
+        <f t="shared" si="104"/>
+        <v>瘟疫魔女·瑞贝卡</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="105"/>
+        <v>180</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="106"/>
+        <v>4</v>
+      </c>
+      <c r="U100">
+        <v>100</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="107"/>
+        <v>11</v>
+      </c>
+      <c r="W100">
+        <f t="shared" ref="W100:Y100" si="120">J76</f>
+        <v>8</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="120"/>
+        <v>90</v>
+      </c>
+      <c r="Y100" s="1" t="str">
+        <f t="shared" si="120"/>
+        <v>5|31</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>1</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH100" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10</v>
+      </c>
+    </row>
+    <row r="101" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q101">
+        <v>3404</v>
+      </c>
+      <c r="R101" t="str">
+        <f t="shared" si="104"/>
+        <v>骷髅王·奥瑞克</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="105"/>
+        <v>180</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="U101">
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="107"/>
+        <v>12</v>
+      </c>
+      <c r="W101">
+        <f t="shared" ref="W101:Y101" si="121">J77</f>
+        <v>2</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="121"/>
+        <v>90</v>
+      </c>
+      <c r="Y101" s="1" t="str">
+        <f t="shared" si="121"/>
+        <v>31|28|6</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>1</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH101" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10</v>
+      </c>
+    </row>
+    <row r="102" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q102">
+        <v>3405</v>
+      </c>
+      <c r="R102" t="str">
+        <f t="shared" si="104"/>
+        <v>幽魂领袖·米勒</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="105"/>
+        <v>180</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="U102">
+        <v>100</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="107"/>
+        <v>14</v>
+      </c>
+      <c r="W102">
+        <f t="shared" ref="W102:Y102" si="122">J78</f>
+        <v>2</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="122"/>
+        <v>90</v>
+      </c>
+      <c r="Y102" s="1" t="str">
+        <f t="shared" si="122"/>
+        <v>10|14</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
+      </c>
+      <c r="AB102">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>1</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH102" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10</v>
+      </c>
+    </row>
+    <row r="103" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q103">
+        <v>3406</v>
+      </c>
+      <c r="R103" t="str">
+        <f t="shared" si="104"/>
+        <v>潜行刺客·乌冬</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="105"/>
+        <v>180</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="106"/>
+        <v>8</v>
+      </c>
+      <c r="U103">
+        <v>100</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="107"/>
+        <v>15</v>
+      </c>
+      <c r="W103">
+        <f t="shared" ref="W103:Y103" si="123">J79</f>
+        <v>2</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="123"/>
+        <v>90</v>
+      </c>
+      <c r="Y103" s="1" t="str">
+        <f t="shared" si="123"/>
+        <v>28|6</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
+      </c>
+      <c r="AB103">
+        <f>H79</f>
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>1</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH103" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10</v>
+      </c>
+    </row>
+    <row r="104" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q104">
+        <v>3407</v>
+      </c>
+      <c r="R104" t="str">
+        <f t="shared" ref="R104:R114" si="124">C80</f>
+        <v>沼泽猎手·鬼王</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="105"/>
+        <v>180</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="106"/>
+        <v>4</v>
+      </c>
+      <c r="U104">
+        <v>100</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="107"/>
+        <v>16</v>
+      </c>
+      <c r="W104">
+        <f t="shared" ref="W104:Y104" si="125">J80</f>
+        <v>12</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="125"/>
+        <v>90</v>
+      </c>
+      <c r="Y104" s="1" t="str">
+        <f t="shared" si="125"/>
+        <v>22|28</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
+      </c>
+      <c r="AB104">
+        <f t="shared" ref="AB104:AB114" si="126">H80</f>
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>1</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH104" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10</v>
+      </c>
+    </row>
+    <row r="105" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q105">
+        <v>3408</v>
+      </c>
+      <c r="R105" t="str">
+        <f t="shared" si="124"/>
+        <v>死亡执掌者·骨龙</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="105"/>
+        <v>250</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="106"/>
+        <v>15</v>
+      </c>
+      <c r="U105">
+        <v>100</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="107"/>
+        <v>20</v>
+      </c>
+      <c r="W105">
+        <f t="shared" ref="W105:Y105" si="127">J81</f>
+        <v>12</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="127"/>
+        <v>100</v>
+      </c>
+      <c r="Y105" s="1" t="str">
+        <f t="shared" si="127"/>
+        <v>12|14|26</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|1</v>
+      </c>
+      <c r="AB105">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>1</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH105" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10</v>
+      </c>
+    </row>
+    <row r="106" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q106">
+        <v>3409</v>
+      </c>
+      <c r="R106" t="str">
+        <f t="shared" si="124"/>
+        <v>骷髅兵</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="105"/>
+        <v>100</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="106"/>
+        <v>6</v>
+      </c>
+      <c r="U106">
+        <v>100</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="107"/>
+        <v>8</v>
+      </c>
+      <c r="W106">
+        <f t="shared" ref="W106:Y106" si="128">J82</f>
+        <v>2</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="128"/>
+        <v>70</v>
+      </c>
+      <c r="Y106" s="1" t="str">
+        <f t="shared" si="128"/>
+        <v>31|28|6</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>3</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH106" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100</v>
+      </c>
+    </row>
+    <row r="107" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q107">
+        <v>3410</v>
+      </c>
+      <c r="R107" t="str">
+        <f t="shared" si="124"/>
+        <v>骷髅战士</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="105"/>
+        <v>100</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="106"/>
+        <v>6</v>
+      </c>
+      <c r="U107">
+        <v>100</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="107"/>
+        <v>8</v>
+      </c>
+      <c r="W107">
+        <f t="shared" ref="W107:Y107" si="129">J83</f>
+        <v>2</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="129"/>
+        <v>70</v>
+      </c>
+      <c r="Y107" s="1" t="str">
+        <f t="shared" si="129"/>
+        <v>31|28|6</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
+      </c>
+      <c r="AB107">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>2</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH107" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100;3410|100</v>
+      </c>
+    </row>
+    <row r="108" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q108">
+        <v>3411</v>
+      </c>
+      <c r="R108" t="str">
+        <f t="shared" si="124"/>
+        <v>骷髅弓箭手</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="105"/>
+        <v>100</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="106"/>
+        <v>6</v>
+      </c>
+      <c r="U108">
+        <v>100</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="107"/>
+        <v>9</v>
+      </c>
+      <c r="W108">
+        <f t="shared" ref="W108:Y108" si="130">J84</f>
+        <v>8</v>
+      </c>
+      <c r="X108">
+        <f t="shared" si="130"/>
+        <v>70</v>
+      </c>
+      <c r="Y108" s="1" t="str">
+        <f t="shared" si="130"/>
+        <v>22|28</v>
+      </c>
+      <c r="Z108" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA108" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>3</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH108" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100;3410|100;3411|100</v>
+      </c>
+    </row>
+    <row r="109" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q109">
+        <v>3412</v>
+      </c>
+      <c r="R109" t="str">
+        <f t="shared" si="124"/>
+        <v>瘟疫法师</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="105"/>
+        <v>100</v>
+      </c>
+      <c r="T109">
         <f t="shared" si="106"/>
         <v>9</v>
       </c>
-      <c r="W96">
-        <f t="shared" ref="W96:Y96" si="114">J72</f>
-        <v>4</v>
-      </c>
-      <c r="X96">
-        <f t="shared" si="114"/>
+      <c r="U109">
+        <v>100</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="107"/>
+        <v>8</v>
+      </c>
+      <c r="W109">
+        <f t="shared" ref="W109:Y109" si="131">J85</f>
+        <v>7</v>
+      </c>
+      <c r="X109">
+        <f t="shared" si="131"/>
         <v>70</v>
       </c>
-      <c r="Y96" s="1" t="str">
-        <f t="shared" si="114"/>
-        <v>12|19</v>
-      </c>
-      <c r="Z96" t="str">
-        <f t="shared" si="108"/>
+      <c r="Y109" s="1" t="str">
+        <f t="shared" si="131"/>
+        <v>20|31|4</v>
+      </c>
+      <c r="Z109" t="str">
+        <f t="shared" si="109"/>
         <v>身体|头部|腿部</v>
       </c>
-      <c r="AA96" t="str">
+      <c r="AA109" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
+      </c>
+      <c r="AB109">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>2</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH109" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100;3410|100;3411|100;3412|100</v>
+      </c>
+    </row>
+    <row r="110" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q110">
+        <v>3413</v>
+      </c>
+      <c r="R110" t="str">
+        <f t="shared" si="124"/>
+        <v>守墓人</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="105"/>
+        <v>100</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="106"/>
+        <v>3</v>
+      </c>
+      <c r="U110">
+        <v>100</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="107"/>
+        <v>8</v>
+      </c>
+      <c r="W110">
+        <f t="shared" ref="W110:Y110" si="132">J86</f>
+        <v>3</v>
+      </c>
+      <c r="X110">
+        <f t="shared" si="132"/>
+        <v>70</v>
+      </c>
+      <c r="Y110" s="1" t="str">
+        <f t="shared" si="132"/>
+        <v>31|26</v>
+      </c>
+      <c r="Z110" t="str">
         <f t="shared" si="109"/>
-        <v>2413|0.2;2405|0.1;2400|0.05;2401|0.05;2402|0.05;2300|0.2;2301|0.2</v>
-      </c>
-      <c r="AB96">
+        <v>身体|头部|腿部</v>
+      </c>
+      <c r="AA110" t="str">
         <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC96">
+        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
+      </c>
+      <c r="AB110">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>1</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH110" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100;3410|100;3411|100;3412|100;3413|100</v>
+      </c>
+    </row>
+    <row r="111" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="Q111">
+        <v>3414</v>
+      </c>
+      <c r="R111" t="str">
+        <f t="shared" si="124"/>
+        <v>幽魂</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="105"/>
+        <v>100</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="106"/>
+        <v>6</v>
+      </c>
+      <c r="U111">
+        <v>100</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="107"/>
+        <v>14</v>
+      </c>
+      <c r="W111">
+        <f t="shared" ref="W111:Y111" si="133">J87</f>
         <v>2</v>
       </c>
-      <c r="AD96">
-        <v>0</v>
-      </c>
-      <c r="AE96">
-        <v>0</v>
-      </c>
-      <c r="AF96">
-        <v>0</v>
+      <c r="X111">
+        <f t="shared" si="133"/>
+        <v>70</v>
+      </c>
+      <c r="Y111" s="1">
+        <f t="shared" si="133"/>
+        <v>10</v>
+      </c>
+      <c r="Z111" t="str">
+        <f t="shared" si="109"/>
+        <v>身体|头部|</v>
+      </c>
+      <c r="AA111" t="str">
+        <f t="shared" si="110"/>
+        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
+      </c>
+      <c r="AB111">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>1</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH111" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100;3410|100;3411|100;3412|100;3413|100;3414|100</v>
       </c>
     </row>
-    <row r="97" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q97">
-        <v>3400</v>
-      </c>
-      <c r="R97" t="str">
-        <f t="shared" si="103"/>
-        <v>正义之镰·肖恩</v>
-      </c>
-      <c r="S97">
-        <f t="shared" si="104"/>
-        <v>180</v>
-      </c>
-      <c r="T97">
+    <row r="112" spans="7:34" x14ac:dyDescent="0.15">
+      <c r="G112" t="s">
+        <v>266</v>
+      </c>
+      <c r="H112" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q112">
+        <v>3415</v>
+      </c>
+      <c r="R112" t="str">
+        <f t="shared" si="124"/>
+        <v>幽魂暗杀者</v>
+      </c>
+      <c r="S112">
         <f t="shared" si="105"/>
-        <v>8</v>
-      </c>
-      <c r="U97">
-        <v>100</v>
-      </c>
-      <c r="V97">
-        <f t="shared" si="106"/>
-        <v>12</v>
-      </c>
-      <c r="W97">
-        <f t="shared" ref="W97:Y97" si="115">J73</f>
-        <v>10</v>
-      </c>
-      <c r="X97">
-        <f t="shared" si="115"/>
-        <v>90</v>
-      </c>
-      <c r="Y97" s="1" t="str">
-        <f t="shared" si="115"/>
-        <v>26|31</v>
-      </c>
-      <c r="Z97" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA97" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
-      </c>
-      <c r="AB97">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC97">
-        <v>1</v>
-      </c>
-      <c r="AD97">
-        <v>0</v>
-      </c>
-      <c r="AE97">
-        <v>0</v>
-      </c>
-      <c r="AF97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q98">
-        <v>3401</v>
-      </c>
-      <c r="R98" t="str">
-        <f t="shared" si="103"/>
-        <v>灵魂女王·塞拉</v>
-      </c>
-      <c r="S98">
-        <f t="shared" si="104"/>
-        <v>180</v>
-      </c>
-      <c r="T98">
-        <f t="shared" si="105"/>
-        <v>8</v>
-      </c>
-      <c r="U98">
-        <v>100</v>
-      </c>
-      <c r="V98">
-        <f t="shared" si="106"/>
-        <v>11</v>
-      </c>
-      <c r="W98">
-        <f t="shared" ref="W98:Y98" si="116">J74</f>
-        <v>12</v>
-      </c>
-      <c r="X98">
-        <f t="shared" si="116"/>
-        <v>90</v>
-      </c>
-      <c r="Y98" s="1" t="str">
-        <f t="shared" si="116"/>
-        <v>26|4|31</v>
-      </c>
-      <c r="Z98" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA98" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
-      </c>
-      <c r="AB98">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC98">
-        <v>1</v>
-      </c>
-      <c r="AD98">
-        <v>0</v>
-      </c>
-      <c r="AE98">
-        <v>0</v>
-      </c>
-      <c r="AF98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q99">
-        <v>3402</v>
-      </c>
-      <c r="R99" t="str">
-        <f t="shared" si="103"/>
-        <v>死亡阴影·摩多</v>
-      </c>
-      <c r="S99">
-        <f t="shared" si="104"/>
-        <v>180</v>
-      </c>
-      <c r="T99">
-        <f t="shared" si="105"/>
-        <v>4</v>
-      </c>
-      <c r="U99">
-        <v>100</v>
-      </c>
-      <c r="V99">
-        <f t="shared" si="106"/>
-        <v>15</v>
-      </c>
-      <c r="W99">
-        <f t="shared" ref="W99:Y99" si="117">J75</f>
-        <v>3</v>
-      </c>
-      <c r="X99">
-        <f t="shared" si="117"/>
-        <v>90</v>
-      </c>
-      <c r="Y99" s="1" t="str">
-        <f t="shared" si="117"/>
-        <v>21|28|31</v>
-      </c>
-      <c r="Z99" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA99" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
-      </c>
-      <c r="AB99">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC99">
-        <v>1</v>
-      </c>
-      <c r="AD99">
-        <v>0</v>
-      </c>
-      <c r="AE99">
-        <v>0</v>
-      </c>
-      <c r="AF99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q100">
-        <v>3403</v>
-      </c>
-      <c r="R100" t="str">
-        <f t="shared" si="103"/>
-        <v>瘟疫魔女·瑞贝卡</v>
-      </c>
-      <c r="S100">
-        <f t="shared" si="104"/>
-        <v>180</v>
-      </c>
-      <c r="T100">
-        <f t="shared" si="105"/>
-        <v>4</v>
-      </c>
-      <c r="U100">
-        <v>100</v>
-      </c>
-      <c r="V100">
-        <f t="shared" si="106"/>
-        <v>11</v>
-      </c>
-      <c r="W100">
-        <f t="shared" ref="W100:Y100" si="118">J76</f>
-        <v>8</v>
-      </c>
-      <c r="X100">
-        <f t="shared" si="118"/>
-        <v>90</v>
-      </c>
-      <c r="Y100" s="1" t="str">
-        <f t="shared" si="118"/>
-        <v>5|31</v>
-      </c>
-      <c r="Z100" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA100" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
-      </c>
-      <c r="AB100">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC100">
-        <v>1</v>
-      </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
-      <c r="AE100">
-        <v>0</v>
-      </c>
-      <c r="AF100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q101">
-        <v>3404</v>
-      </c>
-      <c r="R101" t="str">
-        <f t="shared" si="103"/>
-        <v>骷髅王·奥瑞克</v>
-      </c>
-      <c r="S101">
-        <f t="shared" si="104"/>
-        <v>180</v>
-      </c>
-      <c r="T101">
-        <f t="shared" si="105"/>
-        <v>1</v>
-      </c>
-      <c r="U101">
-        <v>100</v>
-      </c>
-      <c r="V101">
-        <f t="shared" si="106"/>
-        <v>12</v>
-      </c>
-      <c r="W101">
-        <f t="shared" ref="W101:Y101" si="119">J77</f>
-        <v>2</v>
-      </c>
-      <c r="X101">
-        <f t="shared" si="119"/>
-        <v>90</v>
-      </c>
-      <c r="Y101" s="1" t="str">
-        <f t="shared" si="119"/>
-        <v>31|28|6</v>
-      </c>
-      <c r="Z101" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA101" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
-      </c>
-      <c r="AB101">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC101">
-        <v>1</v>
-      </c>
-      <c r="AD101">
-        <v>0</v>
-      </c>
-      <c r="AE101">
-        <v>0</v>
-      </c>
-      <c r="AF101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q102">
-        <v>3405</v>
-      </c>
-      <c r="R102" t="str">
-        <f t="shared" si="103"/>
-        <v>幽魂领袖·米勒</v>
-      </c>
-      <c r="S102">
-        <f t="shared" si="104"/>
-        <v>180</v>
-      </c>
-      <c r="T102">
-        <f t="shared" si="105"/>
-        <v>1</v>
-      </c>
-      <c r="U102">
-        <v>100</v>
-      </c>
-      <c r="V102">
-        <f t="shared" si="106"/>
-        <v>14</v>
-      </c>
-      <c r="W102">
-        <f t="shared" ref="W102:Y102" si="120">J78</f>
-        <v>2</v>
-      </c>
-      <c r="X102">
-        <f t="shared" si="120"/>
-        <v>90</v>
-      </c>
-      <c r="Y102" s="1" t="str">
-        <f t="shared" si="120"/>
-        <v>10|14</v>
-      </c>
-      <c r="Z102" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA102" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
-      </c>
-      <c r="AB102">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC102">
-        <v>1</v>
-      </c>
-      <c r="AD102">
-        <v>0</v>
-      </c>
-      <c r="AE102">
-        <v>0</v>
-      </c>
-      <c r="AF102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q103">
-        <v>3406</v>
-      </c>
-      <c r="R103" t="str">
-        <f t="shared" si="103"/>
-        <v>潜行刺客·乌冬</v>
-      </c>
-      <c r="S103">
-        <f t="shared" si="104"/>
-        <v>180</v>
-      </c>
-      <c r="T103">
-        <f t="shared" si="105"/>
-        <v>8</v>
-      </c>
-      <c r="U103">
-        <v>100</v>
-      </c>
-      <c r="V103">
-        <f t="shared" si="106"/>
-        <v>15</v>
-      </c>
-      <c r="W103">
-        <f t="shared" ref="W103:Y103" si="121">J79</f>
-        <v>2</v>
-      </c>
-      <c r="X103">
-        <f t="shared" si="121"/>
-        <v>90</v>
-      </c>
-      <c r="Y103" s="1" t="str">
-        <f t="shared" si="121"/>
-        <v>28|6</v>
-      </c>
-      <c r="Z103" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA103" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
-      </c>
-      <c r="AB103">
-        <f>H79</f>
-        <v>0</v>
-      </c>
-      <c r="AC103">
-        <v>1</v>
-      </c>
-      <c r="AD103">
-        <v>0</v>
-      </c>
-      <c r="AE103">
-        <v>0</v>
-      </c>
-      <c r="AF103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q104">
-        <v>3407</v>
-      </c>
-      <c r="R104" t="str">
-        <f t="shared" ref="R104:R114" si="122">C80</f>
-        <v>沼泽猎手·鬼王</v>
-      </c>
-      <c r="S104">
-        <f t="shared" si="104"/>
-        <v>180</v>
-      </c>
-      <c r="T104">
-        <f t="shared" si="105"/>
-        <v>4</v>
-      </c>
-      <c r="U104">
-        <v>100</v>
-      </c>
-      <c r="V104">
-        <f t="shared" si="106"/>
-        <v>16</v>
-      </c>
-      <c r="W104">
-        <f t="shared" ref="W104:Y104" si="123">J80</f>
-        <v>12</v>
-      </c>
-      <c r="X104">
-        <f t="shared" si="123"/>
-        <v>90</v>
-      </c>
-      <c r="Y104" s="1" t="str">
-        <f t="shared" si="123"/>
-        <v>22|28</v>
-      </c>
-      <c r="Z104" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA104" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
-      </c>
-      <c r="AB104">
-        <f t="shared" ref="AB104:AB114" si="124">H80</f>
-        <v>0</v>
-      </c>
-      <c r="AC104">
-        <v>1</v>
-      </c>
-      <c r="AD104">
-        <v>0</v>
-      </c>
-      <c r="AE104">
-        <v>0</v>
-      </c>
-      <c r="AF104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q105">
-        <v>3408</v>
-      </c>
-      <c r="R105" t="str">
-        <f t="shared" si="122"/>
-        <v>死亡执掌者·骨龙</v>
-      </c>
-      <c r="S105">
-        <f t="shared" si="104"/>
-        <v>250</v>
-      </c>
-      <c r="T105">
-        <f t="shared" si="105"/>
-        <v>15</v>
-      </c>
-      <c r="U105">
-        <v>100</v>
-      </c>
-      <c r="V105">
-        <f t="shared" si="106"/>
-        <v>20</v>
-      </c>
-      <c r="W105">
-        <f t="shared" ref="W105:Y105" si="125">J81</f>
-        <v>12</v>
-      </c>
-      <c r="X105">
-        <f t="shared" si="125"/>
-        <v>100</v>
-      </c>
-      <c r="Y105" s="1" t="str">
-        <f t="shared" si="125"/>
-        <v>12|14|26</v>
-      </c>
-      <c r="Z105" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA105" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|1</v>
-      </c>
-      <c r="AB105">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AC105">
-        <v>1</v>
-      </c>
-      <c r="AD105">
-        <v>0</v>
-      </c>
-      <c r="AE105">
-        <v>0</v>
-      </c>
-      <c r="AF105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q106">
-        <v>3409</v>
-      </c>
-      <c r="R106" t="str">
-        <f t="shared" si="122"/>
-        <v>骷髅兵</v>
-      </c>
-      <c r="S106">
-        <f t="shared" si="104"/>
-        <v>100</v>
-      </c>
-      <c r="T106">
-        <f t="shared" si="105"/>
-        <v>6</v>
-      </c>
-      <c r="U106">
-        <v>100</v>
-      </c>
-      <c r="V106">
-        <f t="shared" si="106"/>
-        <v>8</v>
-      </c>
-      <c r="W106">
-        <f t="shared" ref="W106:Y106" si="126">J82</f>
-        <v>2</v>
-      </c>
-      <c r="X106">
-        <f t="shared" si="126"/>
-        <v>70</v>
-      </c>
-      <c r="Y106" s="1" t="str">
-        <f t="shared" si="126"/>
-        <v>31|28|6</v>
-      </c>
-      <c r="Z106" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA106" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
-      </c>
-      <c r="AB106">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AC106">
-        <v>3</v>
-      </c>
-      <c r="AD106">
-        <v>0</v>
-      </c>
-      <c r="AE106">
-        <v>0</v>
-      </c>
-      <c r="AF106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q107">
-        <v>3410</v>
-      </c>
-      <c r="R107" t="str">
-        <f t="shared" si="122"/>
-        <v>骷髅战士</v>
-      </c>
-      <c r="S107">
-        <f t="shared" si="104"/>
-        <v>100</v>
-      </c>
-      <c r="T107">
-        <f t="shared" si="105"/>
-        <v>6</v>
-      </c>
-      <c r="U107">
-        <v>100</v>
-      </c>
-      <c r="V107">
-        <f t="shared" si="106"/>
-        <v>8</v>
-      </c>
-      <c r="W107">
-        <f t="shared" ref="W107:Y107" si="127">J83</f>
-        <v>2</v>
-      </c>
-      <c r="X107">
-        <f t="shared" si="127"/>
-        <v>70</v>
-      </c>
-      <c r="Y107" s="1" t="str">
-        <f t="shared" si="127"/>
-        <v>31|28|6</v>
-      </c>
-      <c r="Z107" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA107" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
-      </c>
-      <c r="AB107">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AC107">
-        <v>2</v>
-      </c>
-      <c r="AD107">
-        <v>0</v>
-      </c>
-      <c r="AE107">
-        <v>0</v>
-      </c>
-      <c r="AF107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q108">
-        <v>3411</v>
-      </c>
-      <c r="R108" t="str">
-        <f t="shared" si="122"/>
-        <v>骷髅弓箭手</v>
-      </c>
-      <c r="S108">
-        <f t="shared" si="104"/>
-        <v>100</v>
-      </c>
-      <c r="T108">
-        <f t="shared" si="105"/>
-        <v>6</v>
-      </c>
-      <c r="U108">
-        <v>100</v>
-      </c>
-      <c r="V108">
+        <v>100</v>
+      </c>
+      <c r="T112">
         <f t="shared" si="106"/>
         <v>9</v>
       </c>
-      <c r="W108">
-        <f t="shared" ref="W108:Y108" si="128">J84</f>
-        <v>8</v>
-      </c>
-      <c r="X108">
-        <f t="shared" si="128"/>
+      <c r="U112">
+        <v>100</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="107"/>
+        <v>16</v>
+      </c>
+      <c r="W112">
+        <f t="shared" ref="W112:Y112" si="134">J88</f>
+        <v>2</v>
+      </c>
+      <c r="X112">
+        <f t="shared" si="134"/>
         <v>70</v>
       </c>
-      <c r="Y108" s="1" t="str">
-        <f t="shared" si="128"/>
-        <v>22|28</v>
-      </c>
-      <c r="Z108" t="str">
-        <f t="shared" si="108"/>
+      <c r="Y112" s="1" t="str">
+        <f t="shared" si="134"/>
+        <v>31|28|6</v>
+      </c>
+      <c r="Z112" t="str">
+        <f t="shared" si="109"/>
         <v>身体|头部|腿部</v>
       </c>
-      <c r="AA108" t="str">
-        <f t="shared" si="109"/>
+      <c r="AA112" t="str">
+        <f t="shared" si="110"/>
         <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
       </c>
-      <c r="AB108">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AC108">
-        <v>3</v>
-      </c>
-      <c r="AD108">
-        <v>0</v>
-      </c>
-      <c r="AE108">
-        <v>0</v>
-      </c>
-      <c r="AF108">
-        <v>0</v>
+      <c r="AB112">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>1</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH112" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100;3410|100;3411|100;3412|100;3413|100;3414|100;3415|100</v>
       </c>
     </row>
-    <row r="109" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q109">
-        <v>3412</v>
-      </c>
-      <c r="R109" t="str">
-        <f t="shared" si="122"/>
-        <v>瘟疫法师</v>
-      </c>
-      <c r="S109">
-        <f t="shared" si="104"/>
-        <v>100</v>
-      </c>
-      <c r="T109">
-        <f t="shared" si="105"/>
-        <v>9</v>
-      </c>
-      <c r="U109">
-        <v>100</v>
-      </c>
-      <c r="V109">
-        <f t="shared" si="106"/>
-        <v>8</v>
-      </c>
-      <c r="W109">
-        <f t="shared" ref="W109:Y109" si="129">J85</f>
-        <v>7</v>
-      </c>
-      <c r="X109">
-        <f t="shared" si="129"/>
-        <v>70</v>
-      </c>
-      <c r="Y109" s="1" t="str">
-        <f t="shared" si="129"/>
-        <v>20|31|4</v>
-      </c>
-      <c r="Z109" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA109" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
-      </c>
-      <c r="AB109">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AC109">
-        <v>2</v>
-      </c>
-      <c r="AD109">
-        <v>0</v>
-      </c>
-      <c r="AE109">
-        <v>0</v>
-      </c>
-      <c r="AF109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q110">
-        <v>3413</v>
-      </c>
-      <c r="R110" t="str">
-        <f t="shared" si="122"/>
-        <v>守墓人</v>
-      </c>
-      <c r="S110">
-        <f t="shared" si="104"/>
-        <v>100</v>
-      </c>
-      <c r="T110">
-        <f t="shared" si="105"/>
-        <v>3</v>
-      </c>
-      <c r="U110">
-        <v>100</v>
-      </c>
-      <c r="V110">
-        <f t="shared" si="106"/>
-        <v>8</v>
-      </c>
-      <c r="W110">
-        <f t="shared" ref="W110:Y110" si="130">J86</f>
-        <v>3</v>
-      </c>
-      <c r="X110">
-        <f t="shared" si="130"/>
-        <v>70</v>
-      </c>
-      <c r="Y110" s="1" t="str">
-        <f t="shared" si="130"/>
-        <v>31|26</v>
-      </c>
-      <c r="Z110" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA110" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
-      </c>
-      <c r="AB110">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AC110">
-        <v>1</v>
-      </c>
-      <c r="AD110">
-        <v>0</v>
-      </c>
-      <c r="AE110">
-        <v>0</v>
-      </c>
-      <c r="AF110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q111">
-        <v>3414</v>
-      </c>
-      <c r="R111" t="str">
-        <f t="shared" si="122"/>
-        <v>幽魂</v>
-      </c>
-      <c r="S111">
-        <f t="shared" si="104"/>
-        <v>100</v>
-      </c>
-      <c r="T111">
-        <f t="shared" si="105"/>
-        <v>6</v>
-      </c>
-      <c r="U111">
-        <v>100</v>
-      </c>
-      <c r="V111">
-        <f t="shared" si="106"/>
-        <v>14</v>
-      </c>
-      <c r="W111">
-        <f t="shared" ref="W111:Y111" si="131">J87</f>
-        <v>2</v>
-      </c>
-      <c r="X111">
-        <f t="shared" si="131"/>
-        <v>70</v>
-      </c>
-      <c r="Y111" s="1">
-        <f t="shared" si="131"/>
-        <v>10</v>
-      </c>
-      <c r="Z111" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|</v>
-      </c>
-      <c r="AA111" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
-      </c>
-      <c r="AB111">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AC111">
-        <v>1</v>
-      </c>
-      <c r="AD111">
-        <v>0</v>
-      </c>
-      <c r="AE111">
-        <v>0</v>
-      </c>
-      <c r="AF111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="17:32" x14ac:dyDescent="0.15">
-      <c r="Q112">
-        <v>3415</v>
-      </c>
-      <c r="R112" t="str">
-        <f t="shared" si="122"/>
-        <v>幽魂暗杀者</v>
-      </c>
-      <c r="S112">
-        <f t="shared" si="104"/>
-        <v>100</v>
-      </c>
-      <c r="T112">
-        <f t="shared" si="105"/>
-        <v>9</v>
-      </c>
-      <c r="U112">
-        <v>100</v>
-      </c>
-      <c r="V112">
-        <f t="shared" si="106"/>
-        <v>16</v>
-      </c>
-      <c r="W112">
-        <f t="shared" ref="W112:Y112" si="132">J88</f>
-        <v>2</v>
-      </c>
-      <c r="X112">
-        <f t="shared" si="132"/>
-        <v>70</v>
-      </c>
-      <c r="Y112" s="1" t="str">
-        <f t="shared" si="132"/>
-        <v>31|28|6</v>
-      </c>
-      <c r="Z112" t="str">
-        <f t="shared" si="108"/>
-        <v>身体|头部|腿部</v>
-      </c>
-      <c r="AA112" t="str">
-        <f t="shared" si="109"/>
-        <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
-      </c>
-      <c r="AB112">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AC112">
-        <v>1</v>
-      </c>
-      <c r="AD112">
-        <v>0</v>
-      </c>
-      <c r="AE112">
-        <v>0</v>
-      </c>
-      <c r="AF112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="113" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="G113" t="s">
+        <v>267</v>
+      </c>
+      <c r="H113" t="s">
+        <v>272</v>
+      </c>
       <c r="Q113">
         <v>3416</v>
       </c>
       <c r="R113" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>沼泽领主</v>
       </c>
       <c r="S113">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>100</v>
       </c>
       <c r="T113">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3</v>
       </c>
       <c r="U113">
         <v>100</v>
       </c>
       <c r="V113">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>12</v>
       </c>
       <c r="W113">
-        <f t="shared" ref="W113:Y113" si="133">J89</f>
+        <f t="shared" ref="W113:Y113" si="135">J89</f>
         <v>3</v>
       </c>
       <c r="X113">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>70</v>
       </c>
       <c r="Y113" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>10|31</v>
       </c>
       <c r="Z113" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>身体|头部|腿部</v>
       </c>
       <c r="AA113" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
       </c>
       <c r="AB113">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AC113">
@@ -13345,52 +14272,65 @@
       <c r="AF113">
         <v>0</v>
       </c>
+      <c r="AG113" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH113" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100;3410|100;3411|100;3412|100;3413|100;3414|100;3415|100;3416|100</v>
+      </c>
     </row>
-    <row r="114" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="114" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="G114" t="s">
+        <v>268</v>
+      </c>
+      <c r="H114" t="s">
+        <v>274</v>
+      </c>
       <c r="Q114">
         <v>3417</v>
       </c>
       <c r="R114" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>骨兽</v>
       </c>
       <c r="S114">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>100</v>
       </c>
       <c r="T114">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6</v>
       </c>
       <c r="U114">
         <v>100</v>
       </c>
       <c r="V114">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>13</v>
       </c>
       <c r="W114">
-        <f t="shared" ref="W114:Y114" si="134">J90</f>
+        <f t="shared" ref="W114:Y114" si="136">J90</f>
         <v>2</v>
       </c>
       <c r="X114">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>70</v>
       </c>
       <c r="Y114" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>19</v>
       </c>
       <c r="Z114" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>身体|头部|腿部</v>
       </c>
       <c r="AA114" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2414|0.2;2402|0.1;2202|0.05;3305|0.2</v>
       </c>
       <c r="AB114">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="AC114">
@@ -13405,8 +14345,31 @@
       <c r="AF114">
         <v>0</v>
       </c>
+      <c r="AG114" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH114" t="str">
+        <f t="shared" si="113"/>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100;3410|100;3411|100;3412|100;3413|100;3414|100;3415|100;3416|100;3417|100</v>
+      </c>
     </row>
-    <row r="121" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="115" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="G115" t="s">
+        <v>269</v>
+      </c>
+      <c r="H115" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="116" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="G116" t="s">
+        <v>270</v>
+      </c>
+      <c r="H116" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="121" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D121">
         <v>103</v>
       </c>
@@ -13423,7 +14386,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="122" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="122" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D122">
         <v>102</v>
       </c>
@@ -13440,7 +14403,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="4:32" x14ac:dyDescent="0.15">
+    <row r="123" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D123">
         <v>401</v>
       </c>
@@ -13455,6 +14418,56 @@
       </c>
       <c r="H123" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="D126" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="D127" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="128" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="D128" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D129" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="130" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D130" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H132" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H133" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H134" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H135" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H136" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Data/NewLand.xlsx
+++ b/Data/NewLand.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ManVsWild/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ManVsWild/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40340" yWindow="3300" windowWidth="24000" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="24000" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="325">
   <si>
     <t>NPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1940,6 +1937,292 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>si'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <rPh sb="0" eb="1">
+      <t>tan'suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索秩序阵营·城市。</t>
+  </si>
+  <si>
+    <t>探索秩序阵营·城市。</t>
+    <rPh sb="0" eb="1">
+      <t>tan'suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'xu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhen'ying</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cheng'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索真理阵营·魔法塔。</t>
+  </si>
+  <si>
+    <t>探索真理阵营·魔法塔。</t>
+    <rPh sb="0" eb="1">
+      <t>tan'suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhen'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhen'ying</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mo'fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索生命阵营·森林。</t>
+  </si>
+  <si>
+    <t>探索生命阵营·森林。</t>
+    <rPh sb="0" eb="1">
+      <t>tan'suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'ming'zhen'ying</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sen'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索混乱阵营·深渊。</t>
+  </si>
+  <si>
+    <t>探索混乱阵营·深渊。</t>
+    <rPh sb="0" eb="1">
+      <t>tan'suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hun'luan'zhen'ying</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shen'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索死亡阵营·沼泽</t>
+  </si>
+  <si>
+    <t>探索死亡阵营·沼泽</t>
+    <rPh sb="0" eb="1">
+      <t>tan'suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'wang'zhen'ying</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhao'ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在城市中战斗。</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>cheng'shi'zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在魔法塔中战斗。</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mo'fa'ta</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhan'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在森林中战斗。</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sen'lin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在深渊中战斗。</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shen'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在沼泽中战斗。</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhao'ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾莫斯;这世上，不过是权利和秩序的游戏！&lt;战胜他，得到秩序阵营的认可。&gt;,3008</t>
+  </si>
+  <si>
+    <t>秩序执掌者注释着你。</t>
+  </si>
+  <si>
+    <t>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100;3010|100;3011|100;3012|100;3013|100;3014|100;3015|100;3016|100;3017|100</t>
+  </si>
+  <si>
+    <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2410|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
+  </si>
+  <si>
+    <t>飓风;真理才是永恒，信我者生，逆我者死！&lt;击败他，得到真理阵营的认可。&gt;,3018</t>
+  </si>
+  <si>
+    <t>真理执掌者闭上了眼睛。</t>
+  </si>
+  <si>
+    <t>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10;3109|100;3110|100;3111|100;3112|100;3113|100;3114|100;3115|100</t>
+  </si>
+  <si>
+    <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2411|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
+  </si>
+  <si>
+    <t>亚玟;生命的力量守护着大地，不要妄想奴役我们！&lt;挑战她，得到生命阵营的认可。&gt;,3028</t>
+  </si>
+  <si>
+    <t>生命执掌者对你微笑。</t>
+  </si>
+  <si>
+    <t>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100;3211|100;3212|100;3213|100;3214|100;3215|100;3216|100;3217|100;3218|100</t>
+  </si>
+  <si>
+    <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2412|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
+  </si>
+  <si>
+    <t>哈里森;多么美妙的世界，吞噬掉它！&lt;战胜他，得到混乱阵营的认可。&gt;,3038</t>
+  </si>
+  <si>
+    <t>混乱执掌者露出了獠牙。</t>
+  </si>
+  <si>
+    <t>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10;3309|100;3310|100;3311|100;3312|100;3313|100;3314|100;3315|100;3316|100</t>
+  </si>
+  <si>
+    <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2413|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
+  </si>
+  <si>
+    <t>骨龙;无论你多么强大，死亡终将笼罩你。&lt;击败他，得到死亡阵营的认可。&gt;,3048</t>
+  </si>
+  <si>
+    <t>死亡执掌者在假寐。</t>
+  </si>
+  <si>
+    <t>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100;3410|100;3411|100;3412|100;3413|100;3414|100;3415|100;3416|100;3417|100</t>
+  </si>
+  <si>
+    <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2414|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
+  </si>
+  <si>
+    <t>人类骑士</t>
+    <rPh sb="0" eb="1">
+      <t>ren'lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老者</t>
+    <rPh sb="0" eb="1">
+      <t>lao'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木精灵</t>
+    <rPh sb="0" eb="1">
+      <t>mu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jing'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小恶魔</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>e'mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡灵法师</t>
+    <rPh sb="0" eb="1">
+      <t>wang'ling'fa'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农夫</t>
+    <rPh sb="0" eb="1">
+      <t>nong'fu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2302,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW136"/>
+  <dimension ref="A1:AW152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView tabSelected="1" topLeftCell="B119" workbookViewId="0">
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14424,50 +14707,787 @@
       <c r="D126" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="E126" t="s">
+        <v>281</v>
+      </c>
+      <c r="F126" t="s">
+        <v>283</v>
+      </c>
+      <c r="K126">
+        <v>2600</v>
+      </c>
+      <c r="L126" s="1">
+        <v>6</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="127" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D127" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="E127" t="s">
+        <v>281</v>
+      </c>
+      <c r="F127" t="s">
+        <v>285</v>
+      </c>
+      <c r="K127">
+        <v>2601</v>
+      </c>
+      <c r="L127" s="1">
+        <v>6</v>
+      </c>
+      <c r="N127" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="128" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D128" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="E128" t="s">
+        <v>281</v>
+      </c>
+      <c r="F128" t="s">
+        <v>287</v>
+      </c>
+      <c r="K128">
+        <v>2601</v>
+      </c>
+      <c r="L128" s="1">
+        <v>6</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="129" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D129" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="E129" t="s">
+        <v>281</v>
+      </c>
+      <c r="F129" t="s">
+        <v>289</v>
+      </c>
+      <c r="K129">
+        <v>2602</v>
+      </c>
+      <c r="L129" s="1">
+        <v>6</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="130" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D130" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="E130" t="s">
+        <v>281</v>
+      </c>
+      <c r="F130" t="s">
+        <v>291</v>
+      </c>
+      <c r="K130">
+        <v>2603</v>
+      </c>
+      <c r="L130" s="1">
+        <v>6</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>321</v>
+      </c>
     </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H132" t="s">
+    <row r="131" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C131" t="s">
+        <v>266</v>
+      </c>
+      <c r="D131" s="1" t="str">
+        <f>C131&amp;";"&amp;E131&amp;","&amp;F131</f>
+        <v>艾莫斯;这世上，不过是权利和秩序的游戏！&lt;战胜他，得到秩序阵营的认可。&gt;,3008</v>
+      </c>
+      <c r="E131" t="s">
         <v>276</v>
       </c>
+      <c r="F131">
+        <v>3008</v>
+      </c>
+      <c r="K131">
+        <v>2604</v>
+      </c>
+      <c r="L131" s="1">
+        <v>6</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
-    <row r="133" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H133" t="s">
+    <row r="132" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C132" t="s">
+        <v>267</v>
+      </c>
+      <c r="D132" s="1" t="str">
+        <f t="shared" ref="D132:D135" si="137">C132&amp;";"&amp;E132&amp;","&amp;F132</f>
+        <v>飓风;真理才是永恒，信我者生，逆我者死！&lt;击败他，得到真理阵营的认可。&gt;,3018</v>
+      </c>
+      <c r="E132" t="s">
         <v>277</v>
       </c>
+      <c r="F132">
+        <v>3018</v>
+      </c>
+      <c r="K132">
+        <v>2605</v>
+      </c>
+      <c r="L132" s="1">
+        <v>6</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="134" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H134" t="s">
+    <row r="133" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>268</v>
+      </c>
+      <c r="D133" s="1" t="str">
+        <f t="shared" si="137"/>
+        <v>亚玟;生命的力量守护着大地，不要妄想奴役我们！&lt;挑战她，得到生命阵营的认可。&gt;,3028</v>
+      </c>
+      <c r="E133" t="s">
         <v>279</v>
       </c>
+      <c r="F133">
+        <v>3028</v>
+      </c>
     </row>
-    <row r="135" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H135" t="s">
+    <row r="134" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>269</v>
+      </c>
+      <c r="D134" s="1" t="str">
+        <f t="shared" si="137"/>
+        <v>哈里森;多么美妙的世界，吞噬掉它！&lt;战胜他，得到混乱阵营的认可。&gt;,3038</v>
+      </c>
+      <c r="E134" t="s">
         <v>278</v>
       </c>
+      <c r="F134">
+        <v>3038</v>
+      </c>
     </row>
-    <row r="136" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="H136" t="s">
+    <row r="135" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>270</v>
+      </c>
+      <c r="D135" s="1" t="str">
+        <f t="shared" si="137"/>
+        <v>骨龙;无论你多么强大，死亡终将笼罩你。&lt;击败他，得到死亡阵营的认可。&gt;,3048</v>
+      </c>
+      <c r="E135" t="s">
         <v>280</v>
+      </c>
+      <c r="F135">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="138" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D138" s="1">
+        <v>3001</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138" t="str">
+        <f>D131</f>
+        <v>艾莫斯;这世上，不过是权利和秩序的游戏！&lt;战胜他，得到秩序阵营的认可。&gt;,3008</v>
+      </c>
+      <c r="G138" t="str">
+        <f>C131</f>
+        <v>艾莫斯</v>
+      </c>
+      <c r="H138" t="str">
+        <f>H112</f>
+        <v>秩序执掌者注释着你。</v>
+      </c>
+      <c r="J138">
+        <f>K138-300</f>
+        <v>2701</v>
+      </c>
+      <c r="K138">
+        <v>3001</v>
+      </c>
+      <c r="L138" s="1">
+        <v>6</v>
+      </c>
+      <c r="M138" t="s">
+        <v>299</v>
+      </c>
+      <c r="N138" t="s">
+        <v>266</v>
+      </c>
+      <c r="O138" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D139" s="1">
+        <v>3002</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
+      <c r="F139" t="str">
+        <f>AH44</f>
+        <v>3000|10;3001|10;3002|10;3003|10;3004|10;3005|10;3006|10;3007|10;3009|100;3010|100;3011|100;3012|100;3013|100;3014|100;3015|100;3016|100;3017|100</v>
+      </c>
+      <c r="G139" t="s">
+        <v>297</v>
+      </c>
+      <c r="H139" t="s">
+        <v>292</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ref="J139:J152" si="138">K139-300</f>
+        <v>2702</v>
+      </c>
+      <c r="K139">
+        <v>3002</v>
+      </c>
+      <c r="L139" s="1">
+        <v>5</v>
+      </c>
+      <c r="M139" t="s">
+        <v>301</v>
+      </c>
+      <c r="N139" t="s">
+        <v>297</v>
+      </c>
+      <c r="O139" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D140" s="1">
+        <v>3003</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140" t="str">
+        <f>D126</f>
+        <v>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2410|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</v>
+      </c>
+      <c r="G140" t="s">
+        <v>281</v>
+      </c>
+      <c r="H140" t="str">
+        <f>F126</f>
+        <v>探索秩序阵营·城市。</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="138"/>
+        <v>2703</v>
+      </c>
+      <c r="K140">
+        <v>3003</v>
+      </c>
+      <c r="L140" s="1">
+        <v>3</v>
+      </c>
+      <c r="M140" t="s">
+        <v>302</v>
+      </c>
+      <c r="N140" t="s">
+        <v>281</v>
+      </c>
+      <c r="O140" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="141" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D141" s="1">
+        <f>D138+100</f>
+        <v>3101</v>
+      </c>
+      <c r="E141">
+        <f>E138</f>
+        <v>6</v>
+      </c>
+      <c r="F141" t="str">
+        <f>D132</f>
+        <v>飓风;真理才是永恒，信我者生，逆我者死！&lt;击败他，得到真理阵营的认可。&gt;,3018</v>
+      </c>
+      <c r="G141" t="str">
+        <f>C132</f>
+        <v>飓风</v>
+      </c>
+      <c r="H141" t="str">
+        <f>H113</f>
+        <v>真理执掌者闭上了眼睛。</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="138"/>
+        <v>2801</v>
+      </c>
+      <c r="K141">
+        <v>3101</v>
+      </c>
+      <c r="L141" s="1">
+        <v>6</v>
+      </c>
+      <c r="M141" t="s">
+        <v>303</v>
+      </c>
+      <c r="N141" t="s">
+        <v>267</v>
+      </c>
+      <c r="O141" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D142" s="1">
+        <f t="shared" ref="D142:D151" si="139">D139+100</f>
+        <v>3102</v>
+      </c>
+      <c r="E142">
+        <f t="shared" ref="E142:E152" si="140">E139</f>
+        <v>5</v>
+      </c>
+      <c r="F142" t="str">
+        <f>AH60</f>
+        <v>3100|10;3101|10;3102|10;3103|10;3104|10;3105|10;3106|10;3107|10;3109|100;3110|100;3111|100;3112|100;3113|100;3114|100;3115|100</v>
+      </c>
+      <c r="G142" t="s">
+        <v>298</v>
+      </c>
+      <c r="H142" t="s">
+        <v>293</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="138"/>
+        <v>2802</v>
+      </c>
+      <c r="K142">
+        <v>3102</v>
+      </c>
+      <c r="L142" s="1">
+        <v>5</v>
+      </c>
+      <c r="M142" t="s">
+        <v>305</v>
+      </c>
+      <c r="N142" t="s">
+        <v>298</v>
+      </c>
+      <c r="O142" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D143" s="1">
+        <f t="shared" si="139"/>
+        <v>3103</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="140"/>
+        <v>3</v>
+      </c>
+      <c r="F143" t="str">
+        <f>D127</f>
+        <v>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2411|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</v>
+      </c>
+      <c r="G143" t="s">
+        <v>281</v>
+      </c>
+      <c r="H143" t="str">
+        <f>F127</f>
+        <v>探索真理阵营·魔法塔。</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="138"/>
+        <v>2803</v>
+      </c>
+      <c r="K143">
+        <v>3103</v>
+      </c>
+      <c r="L143" s="1">
+        <v>3</v>
+      </c>
+      <c r="M143" t="s">
+        <v>306</v>
+      </c>
+      <c r="N143" t="s">
+        <v>281</v>
+      </c>
+      <c r="O143" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D144" s="1">
+        <f t="shared" si="139"/>
+        <v>3201</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="140"/>
+        <v>6</v>
+      </c>
+      <c r="F144" t="str">
+        <f>D133</f>
+        <v>亚玟;生命的力量守护着大地，不要妄想奴役我们！&lt;挑战她，得到生命阵营的认可。&gt;,3028</v>
+      </c>
+      <c r="G144" t="str">
+        <f>C133</f>
+        <v>亚玟</v>
+      </c>
+      <c r="H144" t="str">
+        <f>H114</f>
+        <v>生命执掌者对你微笑。</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="138"/>
+        <v>2901</v>
+      </c>
+      <c r="K144">
+        <v>3201</v>
+      </c>
+      <c r="L144" s="1">
+        <v>6</v>
+      </c>
+      <c r="M144" t="s">
+        <v>307</v>
+      </c>
+      <c r="N144" t="s">
+        <v>268</v>
+      </c>
+      <c r="O144" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="145" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D145" s="1">
+        <f t="shared" si="139"/>
+        <v>3202</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="140"/>
+        <v>5</v>
+      </c>
+      <c r="F145" t="str">
+        <f>AH79</f>
+        <v>3200|10;3201|10;3202|10;3203|10;3204|10;3205|10;3206|10;3207|10;3209|100;3210|100;3211|100;3212|100;3213|100;3214|100;3215|100;3216|100;3217|100;3218|100</v>
+      </c>
+      <c r="G145" t="s">
+        <v>298</v>
+      </c>
+      <c r="H145" t="s">
+        <v>294</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="138"/>
+        <v>2902</v>
+      </c>
+      <c r="K145">
+        <v>3202</v>
+      </c>
+      <c r="L145" s="1">
+        <v>5</v>
+      </c>
+      <c r="M145" t="s">
+        <v>309</v>
+      </c>
+      <c r="N145" t="s">
+        <v>298</v>
+      </c>
+      <c r="O145" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="146" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D146" s="1">
+        <f t="shared" si="139"/>
+        <v>3203</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="140"/>
+        <v>3</v>
+      </c>
+      <c r="F146" t="str">
+        <f>D128</f>
+        <v>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2412|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</v>
+      </c>
+      <c r="G146" t="s">
+        <v>281</v>
+      </c>
+      <c r="H146" t="str">
+        <f>F128</f>
+        <v>探索生命阵营·森林。</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="138"/>
+        <v>2903</v>
+      </c>
+      <c r="K146">
+        <v>3203</v>
+      </c>
+      <c r="L146" s="1">
+        <v>3</v>
+      </c>
+      <c r="M146" t="s">
+        <v>310</v>
+      </c>
+      <c r="N146" t="s">
+        <v>281</v>
+      </c>
+      <c r="O146" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D147" s="1">
+        <f t="shared" si="139"/>
+        <v>3301</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="140"/>
+        <v>6</v>
+      </c>
+      <c r="F147" t="str">
+        <f>D134</f>
+        <v>哈里森;多么美妙的世界，吞噬掉它！&lt;战胜他，得到混乱阵营的认可。&gt;,3038</v>
+      </c>
+      <c r="G147" t="str">
+        <f>C134</f>
+        <v>哈里森</v>
+      </c>
+      <c r="H147" t="str">
+        <f>H115</f>
+        <v>混乱执掌者露出了獠牙。</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="138"/>
+        <v>3001</v>
+      </c>
+      <c r="K147">
+        <v>3301</v>
+      </c>
+      <c r="L147" s="1">
+        <v>6</v>
+      </c>
+      <c r="M147" t="s">
+        <v>311</v>
+      </c>
+      <c r="N147" t="s">
+        <v>269</v>
+      </c>
+      <c r="O147" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D148" s="1">
+        <f t="shared" si="139"/>
+        <v>3302</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="140"/>
+        <v>5</v>
+      </c>
+      <c r="F148" t="str">
+        <f>AH96</f>
+        <v>3300|10;3301|10;3302|10;3303|10;3304|10;3305|10;3306|10;3307|10;3309|100;3310|100;3311|100;3312|100;3313|100;3314|100;3315|100;3316|100</v>
+      </c>
+      <c r="G148" t="s">
+        <v>298</v>
+      </c>
+      <c r="H148" t="s">
+        <v>295</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="138"/>
+        <v>3002</v>
+      </c>
+      <c r="K148">
+        <v>3302</v>
+      </c>
+      <c r="L148" s="1">
+        <v>5</v>
+      </c>
+      <c r="M148" t="s">
+        <v>313</v>
+      </c>
+      <c r="N148" t="s">
+        <v>298</v>
+      </c>
+      <c r="O148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D149" s="1">
+        <f t="shared" si="139"/>
+        <v>3303</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="140"/>
+        <v>3</v>
+      </c>
+      <c r="F149" t="str">
+        <f>D129</f>
+        <v>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2413|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</v>
+      </c>
+      <c r="G149" t="s">
+        <v>281</v>
+      </c>
+      <c r="H149" t="str">
+        <f>F129</f>
+        <v>探索混乱阵营·深渊。</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="138"/>
+        <v>3003</v>
+      </c>
+      <c r="K149">
+        <v>3303</v>
+      </c>
+      <c r="L149" s="1">
+        <v>3</v>
+      </c>
+      <c r="M149" t="s">
+        <v>314</v>
+      </c>
+      <c r="N149" t="s">
+        <v>281</v>
+      </c>
+      <c r="O149" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D150" s="1">
+        <f t="shared" si="139"/>
+        <v>3401</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="140"/>
+        <v>6</v>
+      </c>
+      <c r="F150" t="str">
+        <f>D135</f>
+        <v>骨龙;无论你多么强大，死亡终将笼罩你。&lt;击败他，得到死亡阵营的认可。&gt;,3048</v>
+      </c>
+      <c r="G150" t="str">
+        <f>C135</f>
+        <v>骨龙</v>
+      </c>
+      <c r="H150" t="str">
+        <f>H116</f>
+        <v>死亡执掌者在假寐。</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="138"/>
+        <v>3101</v>
+      </c>
+      <c r="K150">
+        <v>3401</v>
+      </c>
+      <c r="L150" s="1">
+        <v>6</v>
+      </c>
+      <c r="M150" t="s">
+        <v>315</v>
+      </c>
+      <c r="N150" t="s">
+        <v>270</v>
+      </c>
+      <c r="O150" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D151" s="1">
+        <f t="shared" si="139"/>
+        <v>3402</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="140"/>
+        <v>5</v>
+      </c>
+      <c r="F151" t="str">
+        <f>AH114</f>
+        <v>3400|10;3401|10;3402|10;3403|10;3404|10;3405|10;3406|10;3407|10;3409|100;3410|100;3411|100;3412|100;3413|100;3414|100;3415|100;3416|100;3417|100</v>
+      </c>
+      <c r="G151" t="s">
+        <v>298</v>
+      </c>
+      <c r="H151" t="s">
+        <v>296</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="138"/>
+        <v>3102</v>
+      </c>
+      <c r="K151">
+        <v>3402</v>
+      </c>
+      <c r="L151" s="1">
+        <v>5</v>
+      </c>
+      <c r="M151" t="s">
+        <v>317</v>
+      </c>
+      <c r="N151" t="s">
+        <v>298</v>
+      </c>
+      <c r="O151" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D152" s="1">
+        <f>D149+100</f>
+        <v>3403</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="140"/>
+        <v>3</v>
+      </c>
+      <c r="F152" t="str">
+        <f>D130</f>
+        <v>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2414|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</v>
+      </c>
+      <c r="G152" t="s">
+        <v>281</v>
+      </c>
+      <c r="H152" t="str">
+        <f>F130</f>
+        <v>探索死亡阵营·沼泽</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="138"/>
+        <v>3103</v>
+      </c>
+      <c r="K152">
+        <v>3403</v>
+      </c>
+      <c r="L152" s="1">
+        <v>3</v>
+      </c>
+      <c r="M152" t="s">
+        <v>318</v>
+      </c>
+      <c r="N152" t="s">
+        <v>281</v>
+      </c>
+      <c r="O152" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Data/NewLand.xlsx
+++ b/Data/NewLand.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ManVsWild/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ManVsWild/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="24000" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="33720" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="337">
   <si>
     <t>NPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2116,9 +2119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艾莫斯;这世上，不过是权利和秩序的游戏！&lt;战胜他，得到秩序阵营的认可。&gt;,3008</t>
-  </si>
-  <si>
     <t>秩序执掌者注释着你。</t>
   </si>
   <si>
@@ -2128,9 +2128,6 @@
     <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2410|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
   </si>
   <si>
-    <t>飓风;真理才是永恒，信我者生，逆我者死！&lt;击败他，得到真理阵营的认可。&gt;,3018</t>
-  </si>
-  <si>
     <t>真理执掌者闭上了眼睛。</t>
   </si>
   <si>
@@ -2140,9 +2137,6 @@
     <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2411|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
   </si>
   <si>
-    <t>亚玟;生命的力量守护着大地，不要妄想奴役我们！&lt;挑战她，得到生命阵营的认可。&gt;,3028</t>
-  </si>
-  <si>
     <t>生命执掌者对你微笑。</t>
   </si>
   <si>
@@ -2152,9 +2146,6 @@
     <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2412|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
   </si>
   <si>
-    <t>哈里森;多么美妙的世界，吞噬掉它！&lt;战胜他，得到混乱阵营的认可。&gt;,3038</t>
-  </si>
-  <si>
     <t>混乱执掌者露出了獠牙。</t>
   </si>
   <si>
@@ -2162,9 +2153,6 @@
   </si>
   <si>
     <t>2000;2000;400|100;403|100;2300|100;2301|100;2302|100;2400|100;2401|100;2402|100;2405|100;2413|20;3102|200;4104|200;4109|300;4110|100;4214|100;4204|20;0|1840</t>
-  </si>
-  <si>
-    <t>骨龙;无论你多么强大，死亡终将笼罩你。&lt;击败他，得到死亡阵营的认可。&gt;,3048</t>
   </si>
   <si>
     <t>死亡执掌者在假寐。</t>
@@ -2220,11 +2208,369 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>农夫</t>
+    <t>人类骑士;此乃禁地，没有通行证者杀！;2602</t>
+  </si>
+  <si>
+    <t>光明法师;代表太阳惩罚你！;2603</t>
+  </si>
+  <si>
+    <t>木精灵;年轻人，快离开这里！;2604</t>
+  </si>
+  <si>
+    <t>小恶魔;鲜嫩的人类。。。;2605</t>
+  </si>
+  <si>
+    <t>亡灵法师;你的头骨可否借我一用？;2606</t>
+  </si>
+  <si>
+    <t>交谈</t>
     <rPh sb="0" eb="1">
-      <t>nong'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>jiao'tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残破日记</t>
+    <rPh sb="0" eb="1">
+      <t>can'que</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>po</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <rPh sb="0" eb="1">
+      <t>cha'kan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾莫斯;这世上，不过是权利和秩序的游戏！\n&lt;战胜他，得到秩序阵营的认可，让秩序阵营退出战争。&gt;,3008</t>
+    <rPh sb="37" eb="38">
+      <t>rang</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhi'xu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zhen'ying</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>tui'chu</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zhan'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风;真理才是永恒，信我者生，逆我者死！\n&lt;击败他，得到真理阵营的认可，让真理阵营不再挑衅。&gt;,3018</t>
+    <rPh sb="37" eb="38">
+      <t>rang</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhen'li</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zhen'ying</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>bu'zai</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>tiao'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚玟;生命的力量守护着大地，不要妄想奴役我们！\n&lt;挑战她，得到生命阵营的认可，让生命阵营回归自然。&gt;,3028</t>
+    <rPh sb="40" eb="41">
+      <t>rang</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>sheng'ming'zhen'ying</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>hui'gui'zi'ran</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈里森;多么美妙的世界，吞噬掉它！\n&lt;战胜他，得到混乱阵营的认可，让混乱阵营退回深渊。&gt;,3038</t>
+    <rPh sb="34" eb="35">
+      <t>rang</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>hun'luan'zhen'ying</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>tui'hui</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>shen'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨龙;无论你多么强大，死亡终将笼罩你。\n&lt;击败他，得到死亡阵营的认可，让死亡阵营保持沉寂。&gt;,3048</t>
+    <rPh sb="36" eb="37">
+      <t>rang</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>si'wang</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhen'ying</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>bao'chi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>chen'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老者;远方的来客并不友善，他们强占了土地，建立都城，四处征战。人类、法师、精灵、亡灵还有深渊的恶魔纷争不断，就要将这片土地毁灭了！\n你是神派来的拯救者吗？击败他们的首领，终止这场战争。</t>
+    <rPh sb="0" eb="1">
+      <t>lao'zhe</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan'fang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lai'ke</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bing'bu'you'shan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ta'm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qiang'zhan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>l</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tu'di</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>jian'li</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>du'cheng</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>si'chu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zheng'zhan</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ren'lei</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fa'shi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>jing'ling</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>wang'ling'fa'shi</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>hai'you</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>shen'yuan</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>d</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>e'mo</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>fen'zheng</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>bu'duan</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>zhe'pian</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>tu'di</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>hui'mie</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>l</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>s</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>pai'lai</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>d</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>zheng'jiu'zhe</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ji'bai</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ta'm</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>d</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>shou'ling</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>zhong'zhi</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>zhe'chang'zhan'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残破日记;&lt;1&gt;一月，外人登陆。\n&lt;2&gt;二月，外人和精灵大战。\n&lt;3&gt;四月，深渊入侵，三族乱战。\n&lt;4&gt;七月，精灵人族联军狙击恶魔。\n&lt;5&gt;九月，人类内乱，亡灵叛逃，法师出走，教廷独大。</t>
+    <rPh sb="0" eb="1">
+      <t>can'po</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi'yue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wai'ren</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>er</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>he</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jing'ling</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>da'zhan</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>si'yue</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shen'yuan</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ru'qin</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>luan'zhan</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>qi'yue</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>jing'ling</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ren'zu</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>lian'jun</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ju'ji</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>e'mo</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>jiu'yue</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ren'lei</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>nei'luan</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>wang'ling</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>pan'tao</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>fa'shi</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>chu'zou</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>jiao'ting</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>du'da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|31|4</t>
+  </si>
+  <si>
+    <t>2|31</t>
   </si>
 </sst>
 </file>
@@ -2291,8 +2637,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2305,12 +2653,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2587,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B119" workbookViewId="0">
-      <selection activeCell="K133" sqref="K133"/>
+    <sheetView tabSelected="1" topLeftCell="B111" workbookViewId="0">
+      <selection activeCell="R136" sqref="R136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2599,7 +2949,7 @@
     <col min="12" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" customWidth="1"/>
-    <col min="20" max="32" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="32" width="10.83203125" customWidth="1"/>
     <col min="34" max="40" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13086,18 +13436,18 @@
         <v>小恶魔</v>
       </c>
       <c r="S92">
-        <f t="shared" ref="S92:S114" si="105">G68</f>
+        <f t="shared" ref="S92:S115" si="105">G68</f>
         <v>100</v>
       </c>
       <c r="T92">
-        <f t="shared" ref="T92:T114" si="106">F68</f>
+        <f t="shared" ref="T92:T115" si="106">F68</f>
         <v>6</v>
       </c>
       <c r="U92">
         <v>100</v>
       </c>
       <c r="V92">
-        <f t="shared" ref="V92:V114" si="107">I68</f>
+        <f t="shared" ref="V92:V115" si="107">I68</f>
         <v>8</v>
       </c>
       <c r="W92">
@@ -13113,11 +13463,11 @@
         <v>2|31</v>
       </c>
       <c r="Z92" t="str">
-        <f t="shared" ref="Z92:Z114" si="109">M68</f>
+        <f t="shared" ref="Z92:Z115" si="109">M68</f>
         <v>身体|头部|腿部</v>
       </c>
       <c r="AA92" t="str">
-        <f t="shared" ref="AA92:AA114" si="110">D68</f>
+        <f t="shared" ref="AA92:AA115" si="110">D68</f>
         <v>2413|0.2;2405|0.1;2400|0.05;2401|0.05;2402|0.05;2300|0.2;2301|0.2</v>
       </c>
       <c r="AB92">
@@ -13925,7 +14275,7 @@
         <v>2414|1.5;2402|0.5;2202|0.2;3305|1</v>
       </c>
       <c r="AB104">
-        <f t="shared" ref="AB104:AB114" si="126">H80</f>
+        <f t="shared" ref="AB104:AB115" si="126">H80</f>
         <v>0</v>
       </c>
       <c r="AC104">
@@ -14593,7 +14943,7 @@
         <v>13</v>
       </c>
       <c r="W114">
-        <f t="shared" ref="W114:Y114" si="136">J90</f>
+        <f t="shared" ref="W114:Y115" si="136">J90</f>
         <v>2</v>
       </c>
       <c r="X114">
@@ -14643,6 +14993,51 @@
       <c r="H115" t="s">
         <v>275</v>
       </c>
+      <c r="Q115">
+        <v>2602</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S115">
+        <v>100</v>
+      </c>
+      <c r="T115">
+        <v>3</v>
+      </c>
+      <c r="U115">
+        <v>100</v>
+      </c>
+      <c r="V115">
+        <v>15</v>
+      </c>
+      <c r="W115">
+        <v>3</v>
+      </c>
+      <c r="X115">
+        <v>70</v>
+      </c>
+      <c r="Y115" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>2</v>
+      </c>
+      <c r="AD115">
+        <v>27</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="4:34" x14ac:dyDescent="0.15">
       <c r="G116" t="s">
@@ -14651,6 +15046,192 @@
       <c r="H116" t="s">
         <v>273</v>
       </c>
+      <c r="Q116">
+        <v>2603</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S116">
+        <v>100</v>
+      </c>
+      <c r="T116">
+        <v>6</v>
+      </c>
+      <c r="U116">
+        <v>100</v>
+      </c>
+      <c r="V116">
+        <v>8</v>
+      </c>
+      <c r="W116">
+        <v>8</v>
+      </c>
+      <c r="X116">
+        <v>70</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>2</v>
+      </c>
+      <c r="AD116">
+        <v>28</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="Q117">
+        <v>2604</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="S117">
+        <v>100</v>
+      </c>
+      <c r="T117">
+        <v>9</v>
+      </c>
+      <c r="U117">
+        <v>100</v>
+      </c>
+      <c r="V117">
+        <v>13</v>
+      </c>
+      <c r="W117">
+        <v>2</v>
+      </c>
+      <c r="X117">
+        <v>70</v>
+      </c>
+      <c r="Y117">
+        <v>22</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>2</v>
+      </c>
+      <c r="AD117">
+        <v>29</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="Q118">
+        <v>2605</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="S118">
+        <v>100</v>
+      </c>
+      <c r="T118">
+        <v>6</v>
+      </c>
+      <c r="U118">
+        <v>100</v>
+      </c>
+      <c r="V118">
+        <v>8</v>
+      </c>
+      <c r="W118">
+        <v>2</v>
+      </c>
+      <c r="X118">
+        <v>70</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>2</v>
+      </c>
+      <c r="AD118">
+        <v>30</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="Q119">
+        <v>2606</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="S119">
+        <v>100</v>
+      </c>
+      <c r="T119">
+        <v>9</v>
+      </c>
+      <c r="U119">
+        <v>100</v>
+      </c>
+      <c r="V119">
+        <v>8</v>
+      </c>
+      <c r="W119">
+        <v>7</v>
+      </c>
+      <c r="X119">
+        <v>70</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>2</v>
+      </c>
+      <c r="AD119">
+        <v>31</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D121">
@@ -14719,8 +15300,14 @@
       <c r="L126" s="1">
         <v>6</v>
       </c>
-      <c r="N126" s="1" t="s">
-        <v>320</v>
+      <c r="M126" t="s">
+        <v>333</v>
+      </c>
+      <c r="N126" t="s">
+        <v>324</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="4:34" x14ac:dyDescent="0.15">
@@ -14739,8 +15326,14 @@
       <c r="L127" s="1">
         <v>6</v>
       </c>
+      <c r="M127" t="s">
+        <v>334</v>
+      </c>
       <c r="N127" t="s">
-        <v>324</v>
+        <v>326</v>
+      </c>
+      <c r="O127" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="4:34" x14ac:dyDescent="0.15">
@@ -14754,13 +15347,19 @@
         <v>287</v>
       </c>
       <c r="K128">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="L128" s="1">
         <v>6</v>
       </c>
-      <c r="N128" s="1" t="s">
+      <c r="M128" t="s">
         <v>319</v>
+      </c>
+      <c r="N128" t="s">
+        <v>327</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="3:15" x14ac:dyDescent="0.15">
@@ -14774,12 +15373,18 @@
         <v>289</v>
       </c>
       <c r="K129">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="L129" s="1">
         <v>6</v>
       </c>
-      <c r="N129" s="1" t="s">
+      <c r="M129" t="s">
+        <v>320</v>
+      </c>
+      <c r="N129" t="s">
+        <v>327</v>
+      </c>
+      <c r="O129" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14794,13 +15399,19 @@
         <v>291</v>
       </c>
       <c r="K130">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="L130" s="1">
         <v>6</v>
       </c>
-      <c r="N130" s="1" t="s">
+      <c r="M130" t="s">
         <v>321</v>
+      </c>
+      <c r="N130" t="s">
+        <v>327</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="3:15" x14ac:dyDescent="0.15">
@@ -14818,13 +15429,19 @@
         <v>3008</v>
       </c>
       <c r="K131">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="L131" s="1">
         <v>6</v>
       </c>
-      <c r="N131" s="1" t="s">
+      <c r="M131" t="s">
         <v>322</v>
+      </c>
+      <c r="N131" t="s">
+        <v>327</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="3:15" x14ac:dyDescent="0.15">
@@ -14842,13 +15459,19 @@
         <v>3018</v>
       </c>
       <c r="K132">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="L132" s="1">
         <v>6</v>
       </c>
-      <c r="N132" s="1" t="s">
+      <c r="M132" t="s">
         <v>323</v>
+      </c>
+      <c r="N132" t="s">
+        <v>327</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="3:15" x14ac:dyDescent="0.15">
@@ -14926,13 +15549,13 @@
         <v>6</v>
       </c>
       <c r="M138" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="N138" t="s">
         <v>266</v>
       </c>
       <c r="O138" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="139" spans="3:15" x14ac:dyDescent="0.15">
@@ -14963,7 +15586,7 @@
         <v>5</v>
       </c>
       <c r="M139" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N139" t="s">
         <v>297</v>
@@ -15001,7 +15624,7 @@
         <v>3</v>
       </c>
       <c r="M140" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N140" t="s">
         <v>281</v>
@@ -15042,13 +15665,13 @@
         <v>6</v>
       </c>
       <c r="M141" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="N141" t="s">
         <v>267</v>
       </c>
       <c r="O141" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="3:15" x14ac:dyDescent="0.15">
@@ -15081,7 +15704,7 @@
         <v>5</v>
       </c>
       <c r="M142" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N142" t="s">
         <v>298</v>
@@ -15121,7 +15744,7 @@
         <v>3</v>
       </c>
       <c r="M143" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N143" t="s">
         <v>281</v>
@@ -15162,13 +15785,13 @@
         <v>6</v>
       </c>
       <c r="M144" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="N144" t="s">
         <v>268</v>
       </c>
       <c r="O144" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="4:15" x14ac:dyDescent="0.15">
@@ -15201,7 +15824,7 @@
         <v>5</v>
       </c>
       <c r="M145" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N145" t="s">
         <v>298</v>
@@ -15241,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="M146" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N146" t="s">
         <v>281</v>
@@ -15282,13 +15905,13 @@
         <v>6</v>
       </c>
       <c r="M147" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="N147" t="s">
         <v>269</v>
       </c>
       <c r="O147" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="4:15" x14ac:dyDescent="0.15">
@@ -15321,7 +15944,7 @@
         <v>5</v>
       </c>
       <c r="M148" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N148" t="s">
         <v>298</v>
@@ -15361,7 +15984,7 @@
         <v>3</v>
       </c>
       <c r="M149" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N149" t="s">
         <v>281</v>
@@ -15402,13 +16025,13 @@
         <v>6</v>
       </c>
       <c r="M150" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N150" t="s">
         <v>270</v>
       </c>
       <c r="O150" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="4:15" x14ac:dyDescent="0.15">
@@ -15441,7 +16064,7 @@
         <v>5</v>
       </c>
       <c r="M151" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N151" t="s">
         <v>298</v>
@@ -15481,7 +16104,7 @@
         <v>3</v>
       </c>
       <c r="M152" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N152" t="s">
         <v>281</v>
